--- a/examples/failures/artifact/script/Macros.xlsx
+++ b/examples/failures/artifact/script/Macros.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B050D9F-3D8E-214C-B564-A83222B55FE0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{3B050D9F-3D8E-214C-B564-A83222B55FE0}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView xWindow="23560" yWindow="16180" windowWidth="27300" windowHeight="10360" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="10360" windowWidth="27300" xWindow="23560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="16180"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="MacroLibrary" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="MacroLibrary" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -25,7 +25,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -41,7 +41,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="538">
   <si>
     <t>description</t>
   </si>
@@ -1669,13 +1669,20 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1729,8 +1736,109 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1743,8 +1851,161 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1767,94 +2028,468 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="38">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="17" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="21" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="25" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="33" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="33" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFB4B4B4"/>
@@ -1884,10 +2519,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1922,7 +2557,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1957,7 +2592,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2051,21 +2686,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2082,7 +2717,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2134,24 +2769,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD128"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE129"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2243,7 +2878,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>358</v>
       </c>
@@ -2335,7 +2970,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>440</v>
       </c>
@@ -2421,7 +3056,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>461</v>
       </c>
@@ -2504,7 +3139,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2578,7 +3213,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -2646,7 +3281,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2708,7 +3343,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2764,7 +3399,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2811,7 +3446,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>335</v>
       </c>
@@ -2852,7 +3487,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2890,7 +3525,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>321</v>
       </c>
@@ -2907,7 +3542,7 @@
         <v>377</v>
       </c>
       <c r="M12" t="s">
-        <v>421</v>
+        <v>536</v>
       </c>
       <c r="N12" t="s">
         <v>505</v>
@@ -2928,7 +3563,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -2945,7 +3580,7 @@
         <v>13</v>
       </c>
       <c r="M13" t="s">
-        <v>457</v>
+        <v>421</v>
       </c>
       <c r="Q13" t="s">
         <v>85</v>
@@ -2963,7 +3598,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>491</v>
       </c>
@@ -2980,7 +3615,7 @@
         <v>34</v>
       </c>
       <c r="M14" t="s">
-        <v>31</v>
+        <v>457</v>
       </c>
       <c r="Q14" t="s">
         <v>86</v>
@@ -2998,7 +3633,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>243</v>
       </c>
@@ -3012,7 +3647,7 @@
         <v>471</v>
       </c>
       <c r="M15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q15" t="s">
         <v>475</v>
@@ -3030,7 +3665,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>185</v>
       </c>
@@ -3044,7 +3679,7 @@
         <v>72</v>
       </c>
       <c r="M16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q16" t="s">
         <v>476</v>
@@ -3062,7 +3697,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -3075,6 +3710,9 @@
       <c r="K17" t="s">
         <v>73</v>
       </c>
+      <c r="M17" t="s">
+        <v>35</v>
+      </c>
       <c r="Y17" t="s">
         <v>477</v>
       </c>
@@ -3085,7 +3723,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>227</v>
       </c>
@@ -3105,7 +3743,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -3125,7 +3763,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>381</v>
       </c>
@@ -3145,7 +3783,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>397</v>
       </c>
@@ -3165,7 +3803,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>398</v>
       </c>
@@ -3185,7 +3823,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>344</v>
       </c>
@@ -3205,7 +3843,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>382</v>
       </c>
@@ -3225,7 +3863,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -3245,7 +3883,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -3265,7 +3903,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -3285,7 +3923,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -3302,7 +3940,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>399</v>
       </c>
@@ -3319,7 +3957,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>215</v>
       </c>
@@ -3333,7 +3971,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="E31" t="s">
         <v>56</v>
       </c>
@@ -3344,7 +3982,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="E32" t="s">
         <v>57</v>
       </c>
@@ -3355,7 +3993,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="E33" t="s">
         <v>58</v>
       </c>
@@ -3366,7 +4004,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="E34" t="s">
         <v>59</v>
       </c>
@@ -3377,7 +4015,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="E35" t="s">
         <v>60</v>
       </c>
@@ -3388,7 +4026,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
         <v>61</v>
       </c>
@@ -3399,7 +4037,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>62</v>
       </c>
@@ -3410,7 +4048,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="38" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="G38" t="s">
         <v>296</v>
       </c>
@@ -3418,7 +4056,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="39" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="G39" t="s">
         <v>255</v>
       </c>
@@ -3426,7 +4064,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="40" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="G40" t="s">
         <v>69</v>
       </c>
@@ -3434,7 +4072,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="G41" t="s">
         <v>201</v>
       </c>
@@ -3442,7 +4080,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="G42" t="s">
         <v>277</v>
       </c>
@@ -3450,7 +4088,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="G43" t="s">
         <v>288</v>
       </c>
@@ -3458,7 +4096,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="G44" t="s">
         <v>289</v>
       </c>
@@ -3466,7 +4104,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="G45" t="s">
         <v>331</v>
       </c>
@@ -3474,7 +4112,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="G46" t="s">
         <v>330</v>
       </c>
@@ -3482,7 +4120,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="G47" t="s">
         <v>200</v>
       </c>
@@ -3490,7 +4128,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="48" spans="5:25" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="G48" t="s">
         <v>308</v>
       </c>
@@ -3498,7 +4136,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="49" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="G49" t="s">
         <v>327</v>
       </c>
@@ -3506,567 +4144,572 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="7:25" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="G50" t="s">
         <v>355</v>
       </c>
       <c r="Y50" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="51" spans="7:25" x14ac:dyDescent="0.2">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="G51" t="s">
         <v>290</v>
       </c>
       <c r="Y51" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="52" spans="7:25" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="G52" t="s">
         <v>343</v>
       </c>
       <c r="Y52" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="53" spans="7:25" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="G53" t="s">
         <v>319</v>
       </c>
       <c r="Y53" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="54" spans="7:25" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="G54" t="s">
         <v>256</v>
       </c>
       <c r="Y54" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="55" spans="7:25" x14ac:dyDescent="0.2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="G55" t="s">
         <v>280</v>
       </c>
       <c r="Y55" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="7:25" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="G56" t="s">
         <v>281</v>
       </c>
       <c r="Y56" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="57" spans="7:25" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="G57" t="s">
         <v>282</v>
       </c>
       <c r="Y57" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="58" spans="7:25" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="G58" t="s">
         <v>291</v>
       </c>
       <c r="Y58" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="59" spans="7:25" x14ac:dyDescent="0.2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="G59" t="s">
         <v>300</v>
       </c>
       <c r="Y59" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="60" spans="7:25" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="G60" t="s">
         <v>325</v>
       </c>
       <c r="Y60" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="7:25" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="G61" t="s">
         <v>297</v>
       </c>
       <c r="Y61" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="62" spans="7:25" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="G62" t="s">
         <v>298</v>
       </c>
       <c r="Y62" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="63" spans="7:25" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="G63" t="s">
         <v>356</v>
       </c>
       <c r="Y63" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="64" spans="7:25" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="G64" t="s">
         <v>357</v>
       </c>
       <c r="Y64" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="7:25" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="G65" t="s">
         <v>333</v>
       </c>
       <c r="Y65" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="66" spans="7:25" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="G66" t="s">
         <v>301</v>
       </c>
       <c r="Y66" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="67" spans="7:25" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="G67" t="s">
         <v>257</v>
       </c>
       <c r="Y67" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="68" spans="7:25" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="G68" t="s">
         <v>509</v>
       </c>
       <c r="Y68" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="69" spans="7:25" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="G69" t="s">
         <v>302</v>
       </c>
       <c r="Y69" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="70" spans="7:25" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="G70" t="s">
         <v>395</v>
       </c>
       <c r="Y70" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="71" spans="7:25" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="G71" t="s">
         <v>292</v>
       </c>
       <c r="Y71" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="72" spans="7:25" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="G72" t="s">
         <v>396</v>
       </c>
       <c r="Y72" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="73" spans="7:25" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="G73" t="s">
         <v>250</v>
       </c>
       <c r="Y73" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="74" spans="7:25" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="G74" t="s">
         <v>494</v>
       </c>
       <c r="Y74" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="75" spans="7:25" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="G75" t="s">
         <v>332</v>
       </c>
       <c r="Y75" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="76" spans="7:25" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="G76" t="s">
         <v>268</v>
       </c>
       <c r="Y76" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="77" spans="7:25" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="G77" t="s">
         <v>274</v>
       </c>
       <c r="Y77" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="78" spans="7:25" x14ac:dyDescent="0.2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="G78" t="s">
         <v>279</v>
       </c>
       <c r="Y78" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="79" spans="7:25" x14ac:dyDescent="0.2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="G79" t="s">
         <v>414</v>
       </c>
       <c r="Y79" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="80" spans="7:25" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="G80" t="s">
         <v>320</v>
       </c>
       <c r="Y80" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="81" spans="7:25" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="G81" t="s">
         <v>258</v>
       </c>
       <c r="Y81" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="82" spans="7:25" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="G82" t="s">
         <v>269</v>
       </c>
       <c r="Y82" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="83" spans="7:25" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="G83" t="s">
         <v>275</v>
       </c>
       <c r="Y83" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="84" spans="7:25" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="G84" t="s">
         <v>264</v>
       </c>
       <c r="Y84" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="85" spans="7:25" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="G85" t="s">
         <v>512</v>
       </c>
       <c r="Y85" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="86" spans="7:25" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="G86" t="s">
         <v>259</v>
       </c>
       <c r="Y86" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="87" spans="7:25" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="G87" t="s">
         <v>276</v>
       </c>
       <c r="Y87" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="88" spans="7:25" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="G88" t="s">
         <v>260</v>
       </c>
       <c r="Y88" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="89" spans="7:25" x14ac:dyDescent="0.2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="G89" t="s">
         <v>261</v>
       </c>
       <c r="Y89" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="90" spans="7:25" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="G90" t="s">
         <v>293</v>
       </c>
       <c r="Y90" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="91" spans="7:25" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="G91" t="s">
         <v>299</v>
       </c>
       <c r="Y91" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="92" spans="7:25" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="G92" t="s">
         <v>283</v>
       </c>
       <c r="Y92" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="93" spans="7:25" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="G93" t="s">
         <v>328</v>
       </c>
       <c r="Y93" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="94" spans="7:25" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="G94" t="s">
         <v>265</v>
       </c>
       <c r="Y94" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="95" spans="7:25" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="G95" t="s">
         <v>266</v>
       </c>
       <c r="Y95" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="Y96" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="96" spans="7:25" x14ac:dyDescent="0.2">
-      <c r="Y96" t="s">
+    <row r="97">
+      <c r="Y97" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y97" t="s">
+    <row r="98">
+      <c r="Y98" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="98" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y98" t="s">
+    <row r="99">
+      <c r="Y99" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="99" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y99" t="s">
+    <row r="100">
+      <c r="Y100" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="100" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y100" t="s">
+    <row r="101">
+      <c r="Y101" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="101" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y101" t="s">
+    <row r="102">
+      <c r="Y102" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="102" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y102" t="s">
+    <row r="103">
+      <c r="Y103" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="103" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y103" t="s">
+    <row r="104">
+      <c r="Y104" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="104" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y104" t="s">
+    <row r="105">
+      <c r="Y105" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="105" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y105" t="s">
+    <row r="106">
+      <c r="Y106" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="106" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y106" t="s">
+    <row r="107">
+      <c r="Y107" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="107" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y107" t="s">
+    <row r="108">
+      <c r="Y108" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="108" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Y109" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="109" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Y110" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="110" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Y111" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="111" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Y112" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="112" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Y113" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="113" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Y114" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="114" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Y115" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="115" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Y116" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="116" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Y117" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="117" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Y118" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="118" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Y119" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="119" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Y120" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="120" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Y121" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="121" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Y122" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="122" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Y123" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="123" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Y124" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Y125" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="125" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Y126" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="126" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Y127" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="127" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Y128" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="128" spans="25:25" x14ac:dyDescent="0.2">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Y129" t="s">
         <v>159</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L200"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
+      <selection activeCell="E5" pane="bottomLeft" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16" style="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" style="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.6640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="26.6640625" style="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="65.83203125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="10" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="14" customWidth="1" collapsed="1"/>
-    <col min="13" max="16384" width="10.83203125" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="20" width="8.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="8" width="16.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="12" width="10.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="29.6640625" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="9" width="26.6640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="16" width="65.83203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="10" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="14" width="12.0" collapsed="true"/>
+    <col min="13" max="16384" style="3" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24" r="1" s="5" spans="1:12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>243</v>
       </c>
@@ -4102,7 +4745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>520</v>
       </c>
@@ -4124,7 +4767,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="13"/>
     </row>
-    <row r="3" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="B3" s="4"/>
       <c r="C3" s="11" t="s">
@@ -4146,7 +4789,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="13"/>
     </row>
-    <row r="4" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
         <v>528</v>
@@ -4170,7 +4813,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="13"/>
     </row>
-    <row r="5" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="11" t="s">
@@ -4192,7 +4835,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="B6" s="21" t="s">
         <v>530</v>
@@ -4216,7 +4859,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="4" t="s">
         <v>529</v>
@@ -4240,7 +4883,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="4"/>
       <c r="C8" s="11" t="s">
@@ -4260,7 +4903,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>532</v>
       </c>
@@ -4282,7 +4925,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="B10" s="4"/>
       <c r="C10" s="11"/>
@@ -4296,7 +4939,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="4"/>
       <c r="C11" s="11"/>
@@ -4310,7 +4953,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="13"/>
     </row>
-    <row r="12" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="B12" s="4"/>
       <c r="C12" s="11"/>
@@ -4324,7 +4967,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="4"/>
       <c r="C13" s="11"/>
@@ -4338,7 +4981,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="13"/>
     </row>
-    <row r="14" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="4"/>
       <c r="C14" s="11"/>
@@ -4352,7 +4995,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="13"/>
     </row>
-    <row r="15" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="4"/>
       <c r="C15" s="11"/>
@@ -4366,7 +5009,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="13"/>
     </row>
-    <row r="16" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="4"/>
       <c r="C16" s="11"/>
@@ -4380,7 +5023,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="13"/>
     </row>
-    <row r="17" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="4"/>
       <c r="C17" s="11"/>
@@ -4394,7 +5037,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="13"/>
     </row>
-    <row r="18" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="4"/>
       <c r="C18" s="11"/>
@@ -4408,7 +5051,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="4"/>
       <c r="C19" s="11"/>
@@ -4422,7 +5065,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="13"/>
     </row>
-    <row r="20" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="4"/>
       <c r="C20" s="11"/>
@@ -4436,7 +5079,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="13"/>
     </row>
-    <row r="21" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="4"/>
       <c r="C21" s="11"/>
@@ -4450,7 +5093,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="13"/>
     </row>
-    <row r="22" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="4"/>
       <c r="C22" s="11"/>
@@ -4464,7 +5107,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="13"/>
     </row>
-    <row r="23" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="4"/>
       <c r="C23" s="11"/>
@@ -4478,7 +5121,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="13"/>
     </row>
-    <row r="24" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="7"/>
       <c r="C24" s="11"/>
@@ -4492,7 +5135,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="13"/>
     </row>
-    <row r="25" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25" s="4"/>
       <c r="C25" s="11"/>
@@ -4506,7 +5149,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="13"/>
     </row>
-    <row r="26" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="4"/>
       <c r="C26" s="11"/>
@@ -4520,7 +5163,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="13"/>
     </row>
-    <row r="27" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="4"/>
       <c r="C27" s="11"/>
@@ -4534,7 +5177,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="13"/>
     </row>
-    <row r="28" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="4"/>
       <c r="C28" s="11"/>
@@ -4548,7 +5191,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="13"/>
     </row>
-    <row r="29" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29" s="4"/>
       <c r="C29" s="11"/>
@@ -4562,7 +5205,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="13"/>
     </row>
-    <row r="30" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30" s="4"/>
       <c r="C30" s="11"/>
@@ -4576,7 +5219,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="13"/>
     </row>
-    <row r="31" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="4"/>
       <c r="C31" s="11"/>
@@ -4590,7 +5233,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="13"/>
     </row>
-    <row r="32" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="4"/>
       <c r="C32" s="11"/>
@@ -4604,7 +5247,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="13"/>
     </row>
-    <row r="33" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="4"/>
       <c r="C33" s="11"/>
@@ -4618,7 +5261,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="13"/>
     </row>
-    <row r="34" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
       <c r="B34" s="4"/>
       <c r="C34" s="11"/>
@@ -4632,7 +5275,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="13"/>
     </row>
-    <row r="35" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
       <c r="B35" s="4"/>
       <c r="C35" s="11"/>
@@ -4646,7 +5289,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="13"/>
     </row>
-    <row r="36" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="4"/>
       <c r="C36" s="11"/>
@@ -4660,7 +5303,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="13"/>
     </row>
-    <row r="37" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="4"/>
       <c r="C37" s="11"/>
@@ -4674,7 +5317,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="13"/>
     </row>
-    <row r="38" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" s="4"/>
       <c r="C38" s="11"/>
@@ -4688,7 +5331,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="13"/>
     </row>
-    <row r="39" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="4"/>
       <c r="C39" s="11"/>
@@ -4702,7 +5345,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="13"/>
     </row>
-    <row r="40" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="19"/>
       <c r="B40" s="4"/>
       <c r="C40" s="11"/>
@@ -4716,7 +5359,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="13"/>
     </row>
-    <row r="41" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="4"/>
       <c r="C41" s="11"/>
@@ -4730,7 +5373,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="13"/>
     </row>
-    <row r="42" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
       <c r="B42" s="4"/>
       <c r="C42" s="11"/>
@@ -4744,7 +5387,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="13"/>
     </row>
-    <row r="43" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
       <c r="B43" s="4"/>
       <c r="C43" s="11"/>
@@ -4758,7 +5401,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="13"/>
     </row>
-    <row r="44" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
       <c r="B44" s="4"/>
       <c r="C44" s="11"/>
@@ -4772,7 +5415,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="13"/>
     </row>
-    <row r="45" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
       <c r="B45" s="4"/>
       <c r="C45" s="11"/>
@@ -4786,7 +5429,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="13"/>
     </row>
-    <row r="46" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="19"/>
       <c r="B46" s="4"/>
       <c r="C46" s="11"/>
@@ -4800,7 +5443,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="13"/>
     </row>
-    <row r="47" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
       <c r="B47" s="4"/>
       <c r="C47" s="11"/>
@@ -4814,7 +5457,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="13"/>
     </row>
-    <row r="48" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
       <c r="B48" s="4"/>
       <c r="C48" s="11"/>
@@ -4828,7 +5471,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="13"/>
     </row>
-    <row r="49" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="B49" s="4"/>
       <c r="C49" s="11"/>
@@ -4842,7 +5485,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="13"/>
     </row>
-    <row r="50" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
       <c r="B50" s="4"/>
       <c r="C50" s="11"/>
@@ -4856,7 +5499,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="13"/>
     </row>
-    <row r="51" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
       <c r="B51" s="4"/>
       <c r="C51" s="11"/>
@@ -4870,7 +5513,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="13"/>
     </row>
-    <row r="52" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="19"/>
       <c r="B52" s="4"/>
       <c r="C52" s="11"/>
@@ -4884,7 +5527,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="13"/>
     </row>
-    <row r="53" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="19"/>
       <c r="B53" s="4"/>
       <c r="C53" s="11"/>
@@ -4898,7 +5541,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="13"/>
     </row>
-    <row r="54" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="19"/>
       <c r="B54" s="4"/>
       <c r="C54" s="11"/>
@@ -4912,7 +5555,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="13"/>
     </row>
-    <row r="55" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="19"/>
       <c r="B55" s="4"/>
       <c r="C55" s="11"/>
@@ -4926,7 +5569,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="13"/>
     </row>
-    <row r="56" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="19"/>
       <c r="B56" s="4"/>
       <c r="C56" s="11"/>
@@ -4940,7 +5583,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="13"/>
     </row>
-    <row r="57" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="19"/>
       <c r="B57" s="4"/>
       <c r="C57" s="11"/>
@@ -4954,7 +5597,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="13"/>
     </row>
-    <row r="58" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="19"/>
       <c r="B58" s="4"/>
       <c r="C58" s="11"/>
@@ -4968,7 +5611,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="13"/>
     </row>
-    <row r="59" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="19"/>
       <c r="B59" s="4"/>
       <c r="C59" s="11"/>
@@ -4982,7 +5625,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="13"/>
     </row>
-    <row r="60" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="19"/>
       <c r="B60" s="4"/>
       <c r="C60" s="11"/>
@@ -4996,7 +5639,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="13"/>
     </row>
-    <row r="61" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="19"/>
       <c r="B61" s="4"/>
       <c r="C61" s="11"/>
@@ -5010,7 +5653,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="13"/>
     </row>
-    <row r="62" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="19"/>
       <c r="B62" s="4"/>
       <c r="C62" s="11"/>
@@ -5024,7 +5667,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="13"/>
     </row>
-    <row r="63" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="19"/>
       <c r="B63" s="4"/>
       <c r="C63" s="11"/>
@@ -5038,7 +5681,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="13"/>
     </row>
-    <row r="64" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="19"/>
       <c r="B64" s="4"/>
       <c r="C64" s="11"/>
@@ -5052,7 +5695,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="13"/>
     </row>
-    <row r="65" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="19"/>
       <c r="B65" s="4"/>
       <c r="C65" s="11"/>
@@ -5066,7 +5709,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="13"/>
     </row>
-    <row r="66" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="19"/>
       <c r="B66" s="4"/>
       <c r="C66" s="11"/>
@@ -5080,7 +5723,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="13"/>
     </row>
-    <row r="67" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="19"/>
       <c r="B67" s="4"/>
       <c r="C67" s="11"/>
@@ -5094,7 +5737,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="13"/>
     </row>
-    <row r="68" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="19"/>
       <c r="B68" s="4"/>
       <c r="C68" s="11"/>
@@ -5108,7 +5751,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="13"/>
     </row>
-    <row r="69" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="19"/>
       <c r="B69" s="4"/>
       <c r="C69" s="11"/>
@@ -5122,7 +5765,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="13"/>
     </row>
-    <row r="70" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="19"/>
       <c r="B70" s="4"/>
       <c r="C70" s="11"/>
@@ -5136,7 +5779,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="13"/>
     </row>
-    <row r="71" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="19"/>
       <c r="B71" s="4"/>
       <c r="C71" s="11"/>
@@ -5150,7 +5793,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="13"/>
     </row>
-    <row r="72" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="19"/>
       <c r="B72" s="4"/>
       <c r="C72" s="11"/>
@@ -5164,7 +5807,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="13"/>
     </row>
-    <row r="73" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="19"/>
       <c r="B73" s="4"/>
       <c r="C73" s="11"/>
@@ -5178,7 +5821,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="13"/>
     </row>
-    <row r="74" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="19"/>
       <c r="B74" s="4"/>
       <c r="C74" s="11"/>
@@ -5192,7 +5835,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="13"/>
     </row>
-    <row r="75" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="19"/>
       <c r="B75" s="4"/>
       <c r="C75" s="11"/>
@@ -5206,7 +5849,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="13"/>
     </row>
-    <row r="76" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="19"/>
       <c r="B76" s="4"/>
       <c r="C76" s="11"/>
@@ -5220,7 +5863,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="13"/>
     </row>
-    <row r="77" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="19"/>
       <c r="B77" s="4"/>
       <c r="C77" s="11"/>
@@ -5234,7 +5877,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="13"/>
     </row>
-    <row r="78" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="19"/>
       <c r="B78" s="4"/>
       <c r="C78" s="11"/>
@@ -5248,7 +5891,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="13"/>
     </row>
-    <row r="79" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="19"/>
       <c r="B79" s="4"/>
       <c r="C79" s="11"/>
@@ -5262,7 +5905,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="13"/>
     </row>
-    <row r="80" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="19"/>
       <c r="B80" s="4"/>
       <c r="C80" s="11"/>
@@ -5276,7 +5919,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="13"/>
     </row>
-    <row r="81" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="19"/>
       <c r="B81" s="4"/>
       <c r="C81" s="11"/>
@@ -5290,7 +5933,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="13"/>
     </row>
-    <row r="82" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="19"/>
       <c r="B82" s="4"/>
       <c r="C82" s="11"/>
@@ -5304,7 +5947,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="13"/>
     </row>
-    <row r="83" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="19"/>
       <c r="B83" s="4"/>
       <c r="C83" s="11"/>
@@ -5318,7 +5961,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="13"/>
     </row>
-    <row r="84" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="19"/>
       <c r="B84" s="4"/>
       <c r="C84" s="11"/>
@@ -5332,7 +5975,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="13"/>
     </row>
-    <row r="85" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="19"/>
       <c r="B85" s="4"/>
       <c r="C85" s="11"/>
@@ -5346,7 +5989,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="13"/>
     </row>
-    <row r="86" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="19"/>
       <c r="B86" s="4"/>
       <c r="C86" s="11"/>
@@ -5360,7 +6003,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="13"/>
     </row>
-    <row r="87" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="19"/>
       <c r="B87" s="4"/>
       <c r="C87" s="11"/>
@@ -5374,7 +6017,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="13"/>
     </row>
-    <row r="88" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="19"/>
       <c r="B88" s="4"/>
       <c r="C88" s="11"/>
@@ -5388,7 +6031,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="13"/>
     </row>
-    <row r="89" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="19"/>
       <c r="B89" s="4"/>
       <c r="C89" s="11"/>
@@ -5402,7 +6045,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="13"/>
     </row>
-    <row r="90" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="19"/>
       <c r="B90" s="4"/>
       <c r="C90" s="11"/>
@@ -5416,7 +6059,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="13"/>
     </row>
-    <row r="91" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="19"/>
       <c r="B91" s="4"/>
       <c r="C91" s="11"/>
@@ -5430,7 +6073,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="13"/>
     </row>
-    <row r="92" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="19"/>
       <c r="B92" s="4"/>
       <c r="C92" s="11"/>
@@ -5444,7 +6087,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="13"/>
     </row>
-    <row r="93" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="19"/>
       <c r="B93" s="4"/>
       <c r="C93" s="11"/>
@@ -5458,7 +6101,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="13"/>
     </row>
-    <row r="94" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="19"/>
       <c r="B94" s="4"/>
       <c r="C94" s="11"/>
@@ -5472,7 +6115,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="13"/>
     </row>
-    <row r="95" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="19"/>
       <c r="B95" s="4"/>
       <c r="C95" s="11"/>
@@ -5486,7 +6129,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="13"/>
     </row>
-    <row r="96" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="19"/>
       <c r="B96" s="4"/>
       <c r="C96" s="11"/>
@@ -5500,7 +6143,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="13"/>
     </row>
-    <row r="97" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="19"/>
       <c r="B97" s="4"/>
       <c r="C97" s="11"/>
@@ -5514,7 +6157,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="13"/>
     </row>
-    <row r="98" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="19"/>
       <c r="B98" s="4"/>
       <c r="C98" s="11"/>
@@ -5528,7 +6171,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="13"/>
     </row>
-    <row r="99" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="19"/>
       <c r="B99" s="4"/>
       <c r="C99" s="11"/>
@@ -5542,7 +6185,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="13"/>
     </row>
-    <row r="100" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="19"/>
       <c r="B100" s="4"/>
       <c r="C100" s="11"/>
@@ -5556,7 +6199,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="13"/>
     </row>
-    <row r="101" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="19"/>
       <c r="B101" s="4"/>
       <c r="C101" s="11"/>
@@ -5570,7 +6213,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="13"/>
     </row>
-    <row r="102" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="19"/>
       <c r="B102" s="4"/>
       <c r="C102" s="11"/>
@@ -5584,7 +6227,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="13"/>
     </row>
-    <row r="103" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="19"/>
       <c r="B103" s="4"/>
       <c r="C103" s="11"/>
@@ -5598,7 +6241,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="13"/>
     </row>
-    <row r="104" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="19"/>
       <c r="B104" s="4"/>
       <c r="C104" s="11"/>
@@ -5612,7 +6255,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="13"/>
     </row>
-    <row r="105" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="19"/>
       <c r="B105" s="4"/>
       <c r="C105" s="11"/>
@@ -5626,7 +6269,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="13"/>
     </row>
-    <row r="106" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="19"/>
       <c r="B106" s="4"/>
       <c r="C106" s="11"/>
@@ -5640,7 +6283,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="13"/>
     </row>
-    <row r="107" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="19"/>
       <c r="B107" s="4"/>
       <c r="C107" s="11"/>
@@ -5654,7 +6297,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="13"/>
     </row>
-    <row r="108" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="19"/>
       <c r="B108" s="4"/>
       <c r="C108" s="11"/>
@@ -5668,7 +6311,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="13"/>
     </row>
-    <row r="109" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="19"/>
       <c r="B109" s="4"/>
       <c r="C109" s="11"/>
@@ -5682,7 +6325,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="13"/>
     </row>
-    <row r="110" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="19"/>
       <c r="B110" s="4"/>
       <c r="C110" s="11"/>
@@ -5696,7 +6339,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="13"/>
     </row>
-    <row r="111" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="19"/>
       <c r="B111" s="4"/>
       <c r="C111" s="11"/>
@@ -5710,7 +6353,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="13"/>
     </row>
-    <row r="112" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="19"/>
       <c r="B112" s="4"/>
       <c r="C112" s="11"/>
@@ -5724,7 +6367,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="13"/>
     </row>
-    <row r="113" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="19"/>
       <c r="B113" s="4"/>
       <c r="C113" s="11"/>
@@ -5738,7 +6381,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="13"/>
     </row>
-    <row r="114" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="19"/>
       <c r="B114" s="4"/>
       <c r="C114" s="11"/>
@@ -5752,7 +6395,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="13"/>
     </row>
-    <row r="115" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="19"/>
       <c r="B115" s="4"/>
       <c r="C115" s="11"/>
@@ -5766,7 +6409,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="13"/>
     </row>
-    <row r="116" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="19"/>
       <c r="B116" s="4"/>
       <c r="C116" s="11"/>
@@ -5780,7 +6423,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="13"/>
     </row>
-    <row r="117" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="19"/>
       <c r="B117" s="4"/>
       <c r="C117" s="11"/>
@@ -5794,7 +6437,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="13"/>
     </row>
-    <row r="118" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="19"/>
       <c r="B118" s="4"/>
       <c r="C118" s="11"/>
@@ -5808,7 +6451,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="13"/>
     </row>
-    <row r="119" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="19"/>
       <c r="B119" s="4"/>
       <c r="C119" s="11"/>
@@ -5822,7 +6465,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="13"/>
     </row>
-    <row r="120" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="19"/>
       <c r="B120" s="4"/>
       <c r="C120" s="11"/>
@@ -5836,7 +6479,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="13"/>
     </row>
-    <row r="121" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="19"/>
       <c r="B121" s="4"/>
       <c r="C121" s="11"/>
@@ -5850,7 +6493,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="13"/>
     </row>
-    <row r="122" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="19"/>
       <c r="B122" s="4"/>
       <c r="C122" s="11"/>
@@ -5864,7 +6507,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="13"/>
     </row>
-    <row r="123" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="19"/>
       <c r="B123" s="4"/>
       <c r="C123" s="11"/>
@@ -5878,7 +6521,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="13"/>
     </row>
-    <row r="124" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="19"/>
       <c r="B124" s="4"/>
       <c r="C124" s="11"/>
@@ -5892,7 +6535,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="13"/>
     </row>
-    <row r="125" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="19"/>
       <c r="B125" s="4"/>
       <c r="C125" s="11"/>
@@ -5906,7 +6549,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="13"/>
     </row>
-    <row r="126" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="19"/>
       <c r="B126" s="4"/>
       <c r="C126" s="11"/>
@@ -5920,7 +6563,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="13"/>
     </row>
-    <row r="127" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="19"/>
       <c r="B127" s="4"/>
       <c r="C127" s="11"/>
@@ -5934,7 +6577,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="13"/>
     </row>
-    <row r="128" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="19"/>
       <c r="B128" s="4"/>
       <c r="C128" s="11"/>
@@ -5948,7 +6591,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="13"/>
     </row>
-    <row r="129" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="19"/>
       <c r="B129" s="4"/>
       <c r="C129" s="11"/>
@@ -5962,7 +6605,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="13"/>
     </row>
-    <row r="130" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="19"/>
       <c r="B130" s="4"/>
       <c r="C130" s="11"/>
@@ -5976,7 +6619,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="13"/>
     </row>
-    <row r="131" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="19"/>
       <c r="B131" s="4"/>
       <c r="C131" s="11"/>
@@ -5990,7 +6633,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="13"/>
     </row>
-    <row r="132" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="19"/>
       <c r="B132" s="4"/>
       <c r="C132" s="11"/>
@@ -6004,7 +6647,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="13"/>
     </row>
-    <row r="133" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="19"/>
       <c r="B133" s="4"/>
       <c r="C133" s="11"/>
@@ -6018,7 +6661,7 @@
       <c r="K133" s="2"/>
       <c r="L133" s="13"/>
     </row>
-    <row r="134" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="19"/>
       <c r="B134" s="4"/>
       <c r="C134" s="11"/>
@@ -6032,7 +6675,7 @@
       <c r="K134" s="2"/>
       <c r="L134" s="13"/>
     </row>
-    <row r="135" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="19"/>
       <c r="B135" s="4"/>
       <c r="C135" s="11"/>
@@ -6046,7 +6689,7 @@
       <c r="K135" s="2"/>
       <c r="L135" s="13"/>
     </row>
-    <row r="136" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="19"/>
       <c r="B136" s="4"/>
       <c r="C136" s="11"/>
@@ -6060,7 +6703,7 @@
       <c r="K136" s="2"/>
       <c r="L136" s="13"/>
     </row>
-    <row r="137" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="19"/>
       <c r="B137" s="4"/>
       <c r="C137" s="11"/>
@@ -6074,7 +6717,7 @@
       <c r="K137" s="2"/>
       <c r="L137" s="13"/>
     </row>
-    <row r="138" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="19"/>
       <c r="B138" s="4"/>
       <c r="C138" s="11"/>
@@ -6088,7 +6731,7 @@
       <c r="K138" s="2"/>
       <c r="L138" s="13"/>
     </row>
-    <row r="139" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="19"/>
       <c r="B139" s="4"/>
       <c r="C139" s="11"/>
@@ -6102,7 +6745,7 @@
       <c r="K139" s="2"/>
       <c r="L139" s="13"/>
     </row>
-    <row r="140" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="19"/>
       <c r="B140" s="4"/>
       <c r="C140" s="11"/>
@@ -6116,7 +6759,7 @@
       <c r="K140" s="2"/>
       <c r="L140" s="13"/>
     </row>
-    <row r="141" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="19"/>
       <c r="B141" s="4"/>
       <c r="C141" s="11"/>
@@ -6130,7 +6773,7 @@
       <c r="K141" s="2"/>
       <c r="L141" s="13"/>
     </row>
-    <row r="142" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="19"/>
       <c r="B142" s="4"/>
       <c r="C142" s="11"/>
@@ -6144,7 +6787,7 @@
       <c r="K142" s="2"/>
       <c r="L142" s="13"/>
     </row>
-    <row r="143" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="19"/>
       <c r="B143" s="4"/>
       <c r="C143" s="11"/>
@@ -6158,7 +6801,7 @@
       <c r="K143" s="2"/>
       <c r="L143" s="13"/>
     </row>
-    <row r="144" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="19"/>
       <c r="B144" s="4"/>
       <c r="C144" s="11"/>
@@ -6172,7 +6815,7 @@
       <c r="K144" s="2"/>
       <c r="L144" s="13"/>
     </row>
-    <row r="145" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="19"/>
       <c r="B145" s="4"/>
       <c r="C145" s="11"/>
@@ -6186,7 +6829,7 @@
       <c r="K145" s="2"/>
       <c r="L145" s="13"/>
     </row>
-    <row r="146" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="19"/>
       <c r="B146" s="4"/>
       <c r="C146" s="11"/>
@@ -6200,7 +6843,7 @@
       <c r="K146" s="2"/>
       <c r="L146" s="13"/>
     </row>
-    <row r="147" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="19"/>
       <c r="B147" s="4"/>
       <c r="C147" s="11"/>
@@ -6214,7 +6857,7 @@
       <c r="K147" s="2"/>
       <c r="L147" s="13"/>
     </row>
-    <row r="148" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="19"/>
       <c r="B148" s="4"/>
       <c r="C148" s="11"/>
@@ -6228,7 +6871,7 @@
       <c r="K148" s="2"/>
       <c r="L148" s="13"/>
     </row>
-    <row r="149" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="19"/>
       <c r="B149" s="4"/>
       <c r="C149" s="11"/>
@@ -6242,7 +6885,7 @@
       <c r="K149" s="2"/>
       <c r="L149" s="13"/>
     </row>
-    <row r="150" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="19"/>
       <c r="B150" s="4"/>
       <c r="C150" s="11"/>
@@ -6256,7 +6899,7 @@
       <c r="K150" s="2"/>
       <c r="L150" s="13"/>
     </row>
-    <row r="151" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="19"/>
       <c r="B151" s="4"/>
       <c r="C151" s="11"/>
@@ -6270,7 +6913,7 @@
       <c r="K151" s="2"/>
       <c r="L151" s="13"/>
     </row>
-    <row r="152" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="19"/>
       <c r="B152" s="4"/>
       <c r="C152" s="11"/>
@@ -6284,7 +6927,7 @@
       <c r="K152" s="2"/>
       <c r="L152" s="13"/>
     </row>
-    <row r="153" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="19"/>
       <c r="B153" s="4"/>
       <c r="C153" s="11"/>
@@ -6298,7 +6941,7 @@
       <c r="K153" s="2"/>
       <c r="L153" s="13"/>
     </row>
-    <row r="154" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="19"/>
       <c r="B154" s="4"/>
       <c r="C154" s="11"/>
@@ -6312,7 +6955,7 @@
       <c r="K154" s="2"/>
       <c r="L154" s="13"/>
     </row>
-    <row r="155" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="19"/>
       <c r="B155" s="4"/>
       <c r="C155" s="11"/>
@@ -6326,7 +6969,7 @@
       <c r="K155" s="2"/>
       <c r="L155" s="13"/>
     </row>
-    <row r="156" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="19"/>
       <c r="B156" s="4"/>
       <c r="C156" s="11"/>
@@ -6340,7 +6983,7 @@
       <c r="K156" s="2"/>
       <c r="L156" s="13"/>
     </row>
-    <row r="157" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="19"/>
       <c r="B157" s="4"/>
       <c r="C157" s="11"/>
@@ -6354,7 +6997,7 @@
       <c r="K157" s="2"/>
       <c r="L157" s="13"/>
     </row>
-    <row r="158" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="19"/>
       <c r="B158" s="4"/>
       <c r="C158" s="11"/>
@@ -6368,7 +7011,7 @@
       <c r="K158" s="2"/>
       <c r="L158" s="13"/>
     </row>
-    <row r="159" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="19"/>
       <c r="B159" s="4"/>
       <c r="C159" s="11"/>
@@ -6382,7 +7025,7 @@
       <c r="K159" s="2"/>
       <c r="L159" s="13"/>
     </row>
-    <row r="160" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="19"/>
       <c r="B160" s="4"/>
       <c r="C160" s="11"/>
@@ -6396,7 +7039,7 @@
       <c r="K160" s="2"/>
       <c r="L160" s="13"/>
     </row>
-    <row r="161" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="19"/>
       <c r="B161" s="4"/>
       <c r="C161" s="11"/>
@@ -6410,7 +7053,7 @@
       <c r="K161" s="2"/>
       <c r="L161" s="13"/>
     </row>
-    <row r="162" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="19"/>
       <c r="B162" s="4"/>
       <c r="C162" s="11"/>
@@ -6424,7 +7067,7 @@
       <c r="K162" s="2"/>
       <c r="L162" s="13"/>
     </row>
-    <row r="163" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="19"/>
       <c r="B163" s="4"/>
       <c r="C163" s="11"/>
@@ -6438,7 +7081,7 @@
       <c r="K163" s="2"/>
       <c r="L163" s="13"/>
     </row>
-    <row r="164" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="19"/>
       <c r="B164" s="4"/>
       <c r="C164" s="11"/>
@@ -6452,7 +7095,7 @@
       <c r="K164" s="2"/>
       <c r="L164" s="13"/>
     </row>
-    <row r="165" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="19"/>
       <c r="B165" s="4"/>
       <c r="C165" s="11"/>
@@ -6466,7 +7109,7 @@
       <c r="K165" s="2"/>
       <c r="L165" s="13"/>
     </row>
-    <row r="166" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="19"/>
       <c r="B166" s="4"/>
       <c r="C166" s="11"/>
@@ -6480,7 +7123,7 @@
       <c r="K166" s="2"/>
       <c r="L166" s="13"/>
     </row>
-    <row r="167" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="19"/>
       <c r="B167" s="4"/>
       <c r="C167" s="11"/>
@@ -6494,7 +7137,7 @@
       <c r="K167" s="2"/>
       <c r="L167" s="13"/>
     </row>
-    <row r="168" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="19"/>
       <c r="B168" s="4"/>
       <c r="C168" s="11"/>
@@ -6508,7 +7151,7 @@
       <c r="K168" s="2"/>
       <c r="L168" s="13"/>
     </row>
-    <row r="169" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="19"/>
       <c r="B169" s="4"/>
       <c r="C169" s="11"/>
@@ -6522,7 +7165,7 @@
       <c r="K169" s="2"/>
       <c r="L169" s="13"/>
     </row>
-    <row r="170" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="19"/>
       <c r="B170" s="4"/>
       <c r="C170" s="11"/>
@@ -6536,7 +7179,7 @@
       <c r="K170" s="2"/>
       <c r="L170" s="13"/>
     </row>
-    <row r="171" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="19"/>
       <c r="B171" s="4"/>
       <c r="C171" s="11"/>
@@ -6550,7 +7193,7 @@
       <c r="K171" s="2"/>
       <c r="L171" s="13"/>
     </row>
-    <row r="172" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="19"/>
       <c r="B172" s="4"/>
       <c r="C172" s="11"/>
@@ -6564,7 +7207,7 @@
       <c r="K172" s="2"/>
       <c r="L172" s="13"/>
     </row>
-    <row r="173" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" s="19"/>
       <c r="B173" s="4"/>
       <c r="C173" s="11"/>
@@ -6578,7 +7221,7 @@
       <c r="K173" s="2"/>
       <c r="L173" s="13"/>
     </row>
-    <row r="174" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="19"/>
       <c r="B174" s="4"/>
       <c r="C174" s="11"/>
@@ -6592,7 +7235,7 @@
       <c r="K174" s="2"/>
       <c r="L174" s="13"/>
     </row>
-    <row r="175" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="19"/>
       <c r="B175" s="4"/>
       <c r="C175" s="11"/>
@@ -6606,7 +7249,7 @@
       <c r="K175" s="2"/>
       <c r="L175" s="13"/>
     </row>
-    <row r="176" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="19"/>
       <c r="B176" s="4"/>
       <c r="C176" s="11"/>
@@ -6620,7 +7263,7 @@
       <c r="K176" s="2"/>
       <c r="L176" s="13"/>
     </row>
-    <row r="177" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="19"/>
       <c r="B177" s="4"/>
       <c r="C177" s="11"/>
@@ -6634,7 +7277,7 @@
       <c r="K177" s="2"/>
       <c r="L177" s="13"/>
     </row>
-    <row r="178" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="19"/>
       <c r="B178" s="4"/>
       <c r="C178" s="11"/>
@@ -6648,7 +7291,7 @@
       <c r="K178" s="2"/>
       <c r="L178" s="13"/>
     </row>
-    <row r="179" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="19"/>
       <c r="B179" s="4"/>
       <c r="C179" s="11"/>
@@ -6662,7 +7305,7 @@
       <c r="K179" s="2"/>
       <c r="L179" s="13"/>
     </row>
-    <row r="180" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="19"/>
       <c r="B180" s="4"/>
       <c r="C180" s="11"/>
@@ -6676,7 +7319,7 @@
       <c r="K180" s="2"/>
       <c r="L180" s="13"/>
     </row>
-    <row r="181" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="19"/>
       <c r="B181" s="4"/>
       <c r="C181" s="11"/>
@@ -6690,7 +7333,7 @@
       <c r="K181" s="2"/>
       <c r="L181" s="13"/>
     </row>
-    <row r="182" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="19"/>
       <c r="B182" s="4"/>
       <c r="C182" s="11"/>
@@ -6704,7 +7347,7 @@
       <c r="K182" s="2"/>
       <c r="L182" s="13"/>
     </row>
-    <row r="183" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="19"/>
       <c r="B183" s="4"/>
       <c r="C183" s="11"/>
@@ -6718,7 +7361,7 @@
       <c r="K183" s="2"/>
       <c r="L183" s="13"/>
     </row>
-    <row r="184" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="19"/>
       <c r="B184" s="4"/>
       <c r="C184" s="11"/>
@@ -6732,7 +7375,7 @@
       <c r="K184" s="2"/>
       <c r="L184" s="13"/>
     </row>
-    <row r="185" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="19"/>
       <c r="B185" s="4"/>
       <c r="C185" s="11"/>
@@ -6746,7 +7389,7 @@
       <c r="K185" s="2"/>
       <c r="L185" s="13"/>
     </row>
-    <row r="186" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="19"/>
       <c r="B186" s="4"/>
       <c r="C186" s="11"/>
@@ -6760,7 +7403,7 @@
       <c r="K186" s="2"/>
       <c r="L186" s="13"/>
     </row>
-    <row r="187" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="19"/>
       <c r="B187" s="4"/>
       <c r="C187" s="11"/>
@@ -6774,7 +7417,7 @@
       <c r="K187" s="2"/>
       <c r="L187" s="13"/>
     </row>
-    <row r="188" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="19"/>
       <c r="B188" s="4"/>
       <c r="C188" s="11"/>
@@ -6788,7 +7431,7 @@
       <c r="K188" s="2"/>
       <c r="L188" s="13"/>
     </row>
-    <row r="189" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="19"/>
       <c r="B189" s="4"/>
       <c r="C189" s="11"/>
@@ -6802,7 +7445,7 @@
       <c r="K189" s="2"/>
       <c r="L189" s="13"/>
     </row>
-    <row r="190" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="19"/>
       <c r="B190" s="4"/>
       <c r="C190" s="11"/>
@@ -6816,7 +7459,7 @@
       <c r="K190" s="2"/>
       <c r="L190" s="13"/>
     </row>
-    <row r="191" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="19"/>
       <c r="B191" s="4"/>
       <c r="C191" s="11"/>
@@ -6830,7 +7473,7 @@
       <c r="K191" s="2"/>
       <c r="L191" s="13"/>
     </row>
-    <row r="192" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="19"/>
       <c r="B192" s="4"/>
       <c r="C192" s="11"/>
@@ -6844,7 +7487,7 @@
       <c r="K192" s="2"/>
       <c r="L192" s="13"/>
     </row>
-    <row r="193" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="19"/>
       <c r="B193" s="4"/>
       <c r="C193" s="11"/>
@@ -6858,7 +7501,7 @@
       <c r="K193" s="2"/>
       <c r="L193" s="13"/>
     </row>
-    <row r="194" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="19"/>
       <c r="B194" s="4"/>
       <c r="C194" s="11"/>
@@ -6872,7 +7515,7 @@
       <c r="K194" s="2"/>
       <c r="L194" s="13"/>
     </row>
-    <row r="195" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="19"/>
       <c r="B195" s="4"/>
       <c r="C195" s="11"/>
@@ -6886,7 +7529,7 @@
       <c r="K195" s="2"/>
       <c r="L195" s="13"/>
     </row>
-    <row r="196" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="19"/>
       <c r="B196" s="4"/>
       <c r="C196" s="11"/>
@@ -6900,7 +7543,7 @@
       <c r="K196" s="2"/>
       <c r="L196" s="13"/>
     </row>
-    <row r="197" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="19"/>
       <c r="B197" s="4"/>
       <c r="C197" s="11"/>
@@ -6914,7 +7557,7 @@
       <c r="K197" s="2"/>
       <c r="L197" s="13"/>
     </row>
-    <row r="198" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="19"/>
       <c r="B198" s="4"/>
       <c r="C198" s="11"/>
@@ -6928,7 +7571,7 @@
       <c r="K198" s="2"/>
       <c r="L198" s="13"/>
     </row>
-    <row r="199" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="19"/>
       <c r="B199" s="4"/>
       <c r="C199" s="11"/>
@@ -6942,7 +7585,7 @@
       <c r="K199" s="2"/>
       <c r="L199" s="13"/>
     </row>
-    <row r="200" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="19"/>
       <c r="B200" s="4"/>
       <c r="C200" s="11"/>
@@ -6957,16 +7600,16 @@
       <c r="L200" s="13"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C200" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C200" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D200" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D2:D200" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C2)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/examples/failures/artifact/script/Macros.xlsx
+++ b/examples/failures/artifact/script/Macros.xlsx
@@ -15,11 +15,11 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -40,13 +40,14 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2789" uniqueCount="543">
   <si>
     <t>description</t>
   </si>
@@ -1675,6 +1676,21 @@
   </si>
   <si>
     <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
 </sst>
 </file>
@@ -1682,7 +1698,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="72" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1837,8 +1853,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="30">
+  <fills count="111">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2004,8 +2323,467 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="130">
     <border>
       <left/>
       <right/>
@@ -2354,13 +3132,991 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="86">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2434,52 +4190,196 @@
       <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="9" fillId="5" fontId="8" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="13" fillId="8" fontId="10" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="17" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="11" fontId="11" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="21" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="14" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="17" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="25" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="20" fontId="16" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="11" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="33" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="33" fillId="23" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="33" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="33" fillId="23" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="14" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="26" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="14" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="29" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="41" fillId="32" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="45" fillId="35" fontId="26" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="49" fillId="38" fontId="27" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="53" fillId="41" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="44" fontId="30" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="57" fillId="47" fontId="32" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="61" fillId="38" fontId="33" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="65" fillId="50" fontId="34" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="65" fillId="50" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="41" fontId="36" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="53" fontId="37" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="41" fontId="38" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="56" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="73" fillId="59" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="77" fillId="62" fontId="42" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="81" fillId="65" fontId="43" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="85" fillId="68" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="71" fontId="46" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="89" fillId="74" fontId="48" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="93" fillId="65" fontId="49" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="97" fillId="77" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="97" fillId="77" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="68" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="80" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="68" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="83" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="86" borderId="105" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="89" borderId="109" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="92" borderId="113" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="95" borderId="117" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="98" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="101" borderId="121" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="92" borderId="125" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="104" borderId="129" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="104" borderId="129" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="95" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="107" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="95" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="110" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2777,7 +4677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -2860,21 +4760,24 @@
         <v>382</v>
       </c>
       <c r="Y1" t="s">
+        <v>538</v>
+      </c>
+      <c r="Z1" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>47</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>399</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2952,21 +4855,24 @@
         <v>392</v>
       </c>
       <c r="Y2" t="s">
+        <v>540</v>
+      </c>
+      <c r="Z2" t="s">
         <v>87</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>160</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>165</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>172</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>417</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>483</v>
       </c>
     </row>
@@ -3037,22 +4943,22 @@
       <c r="X3" t="s">
         <v>393</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>88</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>161</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>166</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>351</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>173</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3120,22 +5026,22 @@
       <c r="X4" t="s">
         <v>394</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>341</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>162</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>167</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>173</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>409</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3194,22 +5100,22 @@
       <c r="W5" t="s">
         <v>346</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>342</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>163</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>168</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>174</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>410</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3262,22 +5168,22 @@
       <c r="W6" t="s">
         <v>348</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>89</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>430</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>169</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>175</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>411</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3324,22 +5230,22 @@
       <c r="W7" t="s">
         <v>347</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>90</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>431</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>170</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>176</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>412</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>513</v>
       </c>
     </row>
@@ -3380,22 +5286,22 @@
       <c r="W8" t="s">
         <v>349</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>91</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>164</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>171</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>177</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>413</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>514</v>
       </c>
     </row>
@@ -3436,13 +5342,13 @@
       <c r="W9" t="s">
         <v>350</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>198</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>178</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>515</v>
       </c>
     </row>
@@ -3477,13 +5383,13 @@
       <c r="T10" t="s">
         <v>391</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>245</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>179</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3515,13 +5421,13 @@
       <c r="R11" t="s">
         <v>236</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>246</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>247</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3553,13 +5459,13 @@
       <c r="R12" t="s">
         <v>237</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>92</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>180</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3588,13 +5494,13 @@
       <c r="R13" t="s">
         <v>242</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>314</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>181</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>459</v>
       </c>
     </row>
@@ -3623,13 +5529,13 @@
       <c r="R14" t="s">
         <v>238</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>93</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>182</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>484</v>
       </c>
     </row>
@@ -3655,13 +5561,13 @@
       <c r="R15" t="s">
         <v>239</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>94</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>183</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>485</v>
       </c>
     </row>
@@ -3687,13 +5593,13 @@
       <c r="R16" t="s">
         <v>240</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>66</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>184</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>486</v>
       </c>
     </row>
@@ -3713,13 +5619,13 @@
       <c r="M17" t="s">
         <v>35</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>477</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>452</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>487</v>
       </c>
     </row>
@@ -3736,10 +5642,10 @@
       <c r="K18" t="s">
         <v>448</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>95</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>460</v>
       </c>
     </row>
@@ -3756,10 +5662,10 @@
       <c r="K19" t="s">
         <v>74</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>96</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>488</v>
       </c>
     </row>
@@ -3776,10 +5682,10 @@
       <c r="K20" t="s">
         <v>75</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>97</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>489</v>
       </c>
     </row>
@@ -3788,7 +5694,7 @@
         <v>397</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>539</v>
       </c>
       <c r="G21" t="s">
         <v>286</v>
@@ -3796,10 +5702,10 @@
       <c r="K21" t="s">
         <v>367</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>98</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>490</v>
       </c>
     </row>
@@ -3808,7 +5714,7 @@
         <v>398</v>
       </c>
       <c r="E22" t="s">
-        <v>309</v>
+        <v>53</v>
       </c>
       <c r="G22" t="s">
         <v>287</v>
@@ -3816,10 +5722,10 @@
       <c r="K22" t="s">
         <v>455</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>478</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3828,7 +5734,7 @@
         <v>344</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>309</v>
       </c>
       <c r="G23" t="s">
         <v>278</v>
@@ -3836,10 +5742,10 @@
       <c r="K23" t="s">
         <v>36</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>99</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>516</v>
       </c>
     </row>
@@ -3848,7 +5754,7 @@
         <v>382</v>
       </c>
       <c r="E24" t="s">
-        <v>434</v>
+        <v>54</v>
       </c>
       <c r="G24" t="s">
         <v>267</v>
@@ -3856,19 +5762,19 @@
       <c r="K24" t="s">
         <v>379</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>100</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>538</v>
       </c>
       <c r="E25" t="s">
-        <v>213</v>
+        <v>434</v>
       </c>
       <c r="G25" t="s">
         <v>67</v>
@@ -3876,19 +5782,19 @@
       <c r="K25" t="s">
         <v>508</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>101</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G26" t="s">
         <v>270</v>
@@ -3896,19 +5802,19 @@
       <c r="K26" t="s">
         <v>76</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>102</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>453</v>
+        <v>214</v>
       </c>
       <c r="G27" t="s">
         <v>254</v>
@@ -3916,19 +5822,19 @@
       <c r="K27" t="s">
         <v>419</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>103</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G28" t="s">
         <v>271</v>
@@ -3936,16 +5842,16 @@
       <c r="K28" t="s">
         <v>37</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>399</v>
+        <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>401</v>
+        <v>454</v>
       </c>
       <c r="G29" t="s">
         <v>272</v>
@@ -3953,106 +5859,112 @@
       <c r="K29" t="s">
         <v>38</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>215</v>
+        <v>399</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>401</v>
       </c>
       <c r="G30" t="s">
         <v>205</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>215</v>
+      </c>
       <c r="E31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s">
         <v>263</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G32" t="s">
         <v>273</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G33" t="s">
         <v>493</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G34" t="s">
         <v>248</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G35" t="s">
         <v>318</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G36" t="s">
         <v>295</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G37" t="s">
         <v>249</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="38">
+      <c r="E38" t="s">
+        <v>62</v>
+      </c>
       <c r="G38" t="s">
         <v>296</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>423</v>
       </c>
     </row>
@@ -4060,7 +5972,7 @@
       <c r="G39" t="s">
         <v>255</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>511</v>
       </c>
     </row>
@@ -4068,7 +5980,7 @@
       <c r="G40" t="s">
         <v>69</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>380</v>
       </c>
     </row>
@@ -4076,609 +5988,615 @@
       <c r="G41" t="s">
         <v>201</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y42" t="s">
+        <v>541</v>
+      </c>
+      <c r="Z42" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>288</v>
-      </c>
-      <c r="Y43" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z43" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y44" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z44" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>331</v>
-      </c>
-      <c r="Y45" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z45" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>330</v>
-      </c>
-      <c r="Y46" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z46" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y47" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z47" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y48" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z48" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y49" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z49" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>355</v>
-      </c>
-      <c r="Y50" t="s">
+        <v>327</v>
+      </c>
+      <c r="Z50" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y51" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z51" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>343</v>
-      </c>
-      <c r="Y52" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z52" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>319</v>
-      </c>
-      <c r="Y53" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z53" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>256</v>
-      </c>
-      <c r="Y54" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z54" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>280</v>
-      </c>
-      <c r="Y55" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z55" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>281</v>
-      </c>
-      <c r="Y56" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z56" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>282</v>
-      </c>
-      <c r="Y57" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z57" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y58" t="s">
+        <v>542</v>
+      </c>
+      <c r="Z58" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y59" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z59" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>325</v>
-      </c>
-      <c r="Y60" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z60" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>297</v>
-      </c>
-      <c r="Y61" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z61" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y62" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z62" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>356</v>
-      </c>
-      <c r="Y63" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z63" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>357</v>
-      </c>
-      <c r="Y64" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z64" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>333</v>
-      </c>
-      <c r="Y65" t="s">
+        <v>356</v>
+      </c>
+      <c r="Z65" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y66" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z66" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>257</v>
-      </c>
-      <c r="Y67" t="s">
+        <v>333</v>
+      </c>
+      <c r="Z67" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>509</v>
-      </c>
-      <c r="Y68" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z68" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y69" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z69" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>395</v>
-      </c>
-      <c r="Y70" t="s">
+        <v>509</v>
+      </c>
+      <c r="Z70" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>292</v>
-      </c>
-      <c r="Y71" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z71" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>396</v>
-      </c>
-      <c r="Y72" t="s">
+        <v>395</v>
+      </c>
+      <c r="Z72" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>250</v>
-      </c>
-      <c r="Y73" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z73" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>494</v>
-      </c>
-      <c r="Y74" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z74" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>332</v>
-      </c>
-      <c r="Y75" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z75" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y76" t="s">
+        <v>494</v>
+      </c>
+      <c r="Z76" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y77" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z77" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>279</v>
-      </c>
-      <c r="Y78" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z78" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>414</v>
-      </c>
-      <c r="Y79" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z79" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>320</v>
-      </c>
-      <c r="Y80" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z80" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y81" t="s">
+        <v>414</v>
+      </c>
+      <c r="Z81" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>269</v>
-      </c>
-      <c r="Y82" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z82" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y83" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z83" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y84" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z84" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>512</v>
-      </c>
-      <c r="Y85" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z85" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>259</v>
-      </c>
-      <c r="Y86" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z86" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>276</v>
-      </c>
-      <c r="Y87" t="s">
+        <v>512</v>
+      </c>
+      <c r="Z87" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y88" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z88" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y89" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z89" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>293</v>
-      </c>
-      <c r="Y90" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z90" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y91" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z91" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y92" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z92" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>328</v>
-      </c>
-      <c r="Y93" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z93" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y94" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z94" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="95">
       <c r="G95" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="G96" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="G97" t="s">
         <v>266</v>
       </c>
-      <c r="Y95" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="Y96" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="98">
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="108">
-      <c r="Y108" t="s">
+      <c r="Z108" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="109">
-      <c r="Y109" t="s">
+      <c r="Z109" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="110">
-      <c r="Y110" t="s">
+      <c r="Z110" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="111">
-      <c r="Y111" t="s">
+      <c r="Z111" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="112">
-      <c r="Y112" t="s">
+      <c r="Z112" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="113">
-      <c r="Y113" t="s">
+      <c r="Z113" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="114">
-      <c r="Y114" t="s">
+      <c r="Z114" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="115">
-      <c r="Y115" t="s">
+      <c r="Z115" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="116">
-      <c r="Y116" t="s">
+      <c r="Z116" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="117">
-      <c r="Y117" t="s">
+      <c r="Z117" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="118">
-      <c r="Y118" t="s">
+      <c r="Z118" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="119">
-      <c r="Y119" t="s">
+      <c r="Z119" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="120">
-      <c r="Y120" t="s">
+      <c r="Z120" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="121">
-      <c r="Y121" t="s">
+      <c r="Z121" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="122">
-      <c r="Y122" t="s">
+      <c r="Z122" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="123">
-      <c r="Y123" t="s">
+      <c r="Z123" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="124">
-      <c r="Y124" t="s">
+      <c r="Z124" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="125">
-      <c r="Y125" t="s">
+      <c r="Z125" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="126">
-      <c r="Y126" t="s">
+      <c r="Z126" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="127">
-      <c r="Y127" t="s">
+      <c r="Z127" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="128">
-      <c r="Y128" t="s">
+      <c r="Z128" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="129">
-      <c r="Y129" t="s">
+      <c r="Z129" t="s">
         <v>159</v>
       </c>
     </row>

--- a/examples/failures/artifact/script/Macros.xlsx
+++ b/examples/failures/artifact/script/Macros.xlsx
@@ -25,7 +25,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -40,13 +40,13 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2789" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3339" uniqueCount="544">
   <si>
     <t>description</t>
   </si>
@@ -1691,6 +1691,9 @@
   </si>
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
   </si>
 </sst>
 </file>
@@ -1698,7 +1701,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="72" x14ac:knownFonts="1">
+  <fonts count="88" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2156,8 +2159,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="111">
+  <fills count="138">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2782,8 +2886,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="130">
+  <borders count="162">
     <border>
       <left/>
       <right/>
@@ -4110,13 +4367,339 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="102">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4334,52 +4917,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="83" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="86" borderId="105" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="105" fillId="86" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="89" borderId="109" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="109" fillId="89" fontId="58" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="92" borderId="113" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="113" fillId="92" fontId="59" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="95" borderId="117" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="117" fillId="95" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="98" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="98" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="101" borderId="121" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="121" fillId="101" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="92" borderId="125" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="125" fillId="92" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="104" borderId="129" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="129" fillId="104" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="104" borderId="129" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="129" fillId="104" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="95" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="95" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="107" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="107" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="95" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="95" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="110" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="110" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="113" borderId="137" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="116" borderId="141" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="119" borderId="145" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="122" borderId="149" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="125" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="128" borderId="153" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="119" borderId="157" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="131" borderId="161" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="131" borderId="161" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="134" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="137" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4677,7 +5308,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -4760,24 +5391,21 @@
         <v>382</v>
       </c>
       <c r="Y1" t="s">
-        <v>538</v>
+        <v>45</v>
       </c>
       <c r="Z1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AC1" t="s">
-        <v>48</v>
+        <v>399</v>
       </c>
       <c r="AD1" t="s">
-        <v>399</v>
-      </c>
-      <c r="AE1" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4855,24 +5483,21 @@
         <v>392</v>
       </c>
       <c r="Y2" t="s">
-        <v>540</v>
+        <v>87</v>
       </c>
       <c r="Z2" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="AA2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="AB2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="AC2" t="s">
-        <v>172</v>
+        <v>417</v>
       </c>
       <c r="AD2" t="s">
-        <v>417</v>
-      </c>
-      <c r="AE2" t="s">
         <v>483</v>
       </c>
     </row>
@@ -4943,22 +5568,22 @@
       <c r="X3" t="s">
         <v>393</v>
       </c>
+      <c r="Y3" t="s">
+        <v>88</v>
+      </c>
       <c r="Z3" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="AA3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AB3" t="s">
-        <v>166</v>
+        <v>351</v>
       </c>
       <c r="AC3" t="s">
-        <v>351</v>
+        <v>173</v>
       </c>
       <c r="AD3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE3" t="s">
         <v>216</v>
       </c>
     </row>
@@ -5026,22 +5651,22 @@
       <c r="X4" t="s">
         <v>394</v>
       </c>
+      <c r="Y4" t="s">
+        <v>341</v>
+      </c>
       <c r="Z4" t="s">
-        <v>341</v>
+        <v>162</v>
       </c>
       <c r="AA4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="AB4" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AC4" t="s">
-        <v>173</v>
+        <v>409</v>
       </c>
       <c r="AD4" t="s">
-        <v>409</v>
-      </c>
-      <c r="AE4" t="s">
         <v>217</v>
       </c>
     </row>
@@ -5100,22 +5725,22 @@
       <c r="W5" t="s">
         <v>346</v>
       </c>
+      <c r="Y5" t="s">
+        <v>342</v>
+      </c>
       <c r="Z5" t="s">
-        <v>342</v>
+        <v>163</v>
       </c>
       <c r="AA5" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="AB5" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AC5" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="AD5" t="s">
-        <v>410</v>
-      </c>
-      <c r="AE5" t="s">
         <v>218</v>
       </c>
     </row>
@@ -5168,22 +5793,22 @@
       <c r="W6" t="s">
         <v>348</v>
       </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
       <c r="Z6" t="s">
-        <v>89</v>
+        <v>430</v>
       </c>
       <c r="AA6" t="s">
-        <v>430</v>
+        <v>169</v>
       </c>
       <c r="AB6" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AC6" t="s">
-        <v>175</v>
+        <v>411</v>
       </c>
       <c r="AD6" t="s">
-        <v>411</v>
-      </c>
-      <c r="AE6" t="s">
         <v>219</v>
       </c>
     </row>
@@ -5230,22 +5855,22 @@
       <c r="W7" t="s">
         <v>347</v>
       </c>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
       <c r="Z7" t="s">
-        <v>90</v>
+        <v>431</v>
       </c>
       <c r="AA7" t="s">
-        <v>431</v>
+        <v>170</v>
       </c>
       <c r="AB7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AC7" t="s">
-        <v>176</v>
+        <v>412</v>
       </c>
       <c r="AD7" t="s">
-        <v>412</v>
-      </c>
-      <c r="AE7" t="s">
         <v>513</v>
       </c>
     </row>
@@ -5286,22 +5911,22 @@
       <c r="W8" t="s">
         <v>349</v>
       </c>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
       <c r="Z8" t="s">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c r="AA8" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AB8" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AC8" t="s">
-        <v>177</v>
+        <v>413</v>
       </c>
       <c r="AD8" t="s">
-        <v>413</v>
-      </c>
-      <c r="AE8" t="s">
         <v>514</v>
       </c>
     </row>
@@ -5342,13 +5967,13 @@
       <c r="W9" t="s">
         <v>350</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>198</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>178</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>515</v>
       </c>
     </row>
@@ -5383,13 +6008,13 @@
       <c r="T10" t="s">
         <v>391</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>245</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>179</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>220</v>
       </c>
     </row>
@@ -5421,13 +6046,13 @@
       <c r="R11" t="s">
         <v>236</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>246</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>247</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>221</v>
       </c>
     </row>
@@ -5459,13 +6084,13 @@
       <c r="R12" t="s">
         <v>237</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>92</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>180</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5494,13 +6119,13 @@
       <c r="R13" t="s">
         <v>242</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>314</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>181</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>459</v>
       </c>
     </row>
@@ -5529,13 +6154,13 @@
       <c r="R14" t="s">
         <v>238</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>93</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>182</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>484</v>
       </c>
     </row>
@@ -5561,13 +6186,13 @@
       <c r="R15" t="s">
         <v>239</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>94</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>183</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>485</v>
       </c>
     </row>
@@ -5585,7 +6210,7 @@
         <v>72</v>
       </c>
       <c r="M16" t="s">
-        <v>32</v>
+        <v>543</v>
       </c>
       <c r="Q16" t="s">
         <v>476</v>
@@ -5593,13 +6218,13 @@
       <c r="R16" t="s">
         <v>240</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>66</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>184</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>486</v>
       </c>
     </row>
@@ -5617,15 +6242,15 @@
         <v>73</v>
       </c>
       <c r="M17" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y17" t="s">
         <v>477</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>452</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>487</v>
       </c>
     </row>
@@ -5642,10 +6267,13 @@
       <c r="K18" t="s">
         <v>448</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y18" t="s">
         <v>95</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>460</v>
       </c>
     </row>
@@ -5662,10 +6290,10 @@
       <c r="K19" t="s">
         <v>74</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>96</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>488</v>
       </c>
     </row>
@@ -5682,10 +6310,10 @@
       <c r="K20" t="s">
         <v>75</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>97</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>489</v>
       </c>
     </row>
@@ -5702,10 +6330,10 @@
       <c r="K21" t="s">
         <v>367</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>98</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>490</v>
       </c>
     </row>
@@ -5722,10 +6350,10 @@
       <c r="K22" t="s">
         <v>455</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>478</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5742,10 +6370,10 @@
       <c r="K23" t="s">
         <v>36</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>99</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>516</v>
       </c>
     </row>
@@ -5762,16 +6390,16 @@
       <c r="K24" t="s">
         <v>379</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>100</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>538</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
         <v>434</v>
@@ -5782,16 +6410,16 @@
       <c r="K25" t="s">
         <v>508</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>101</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
         <v>213</v>
@@ -5802,16 +6430,16 @@
       <c r="K26" t="s">
         <v>76</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>102</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
         <v>214</v>
@@ -5822,16 +6450,16 @@
       <c r="K27" t="s">
         <v>419</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>103</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
         <v>453</v>
@@ -5842,13 +6470,13 @@
       <c r="K28" t="s">
         <v>37</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>399</v>
       </c>
       <c r="E29" t="s">
         <v>454</v>
@@ -5859,13 +6487,13 @@
       <c r="K29" t="s">
         <v>38</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>399</v>
+        <v>215</v>
       </c>
       <c r="E30" t="s">
         <v>401</v>
@@ -5873,21 +6501,18 @@
       <c r="G30" t="s">
         <v>205</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>215</v>
-      </c>
       <c r="E31" t="s">
         <v>55</v>
       </c>
       <c r="G31" t="s">
         <v>263</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5898,7 +6523,7 @@
       <c r="G32" t="s">
         <v>273</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5909,7 +6534,7 @@
       <c r="G33" t="s">
         <v>493</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5920,7 +6545,7 @@
       <c r="G34" t="s">
         <v>248</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5931,7 +6556,7 @@
       <c r="G35" t="s">
         <v>318</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5942,7 +6567,7 @@
       <c r="G36" t="s">
         <v>295</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5953,7 +6578,7 @@
       <c r="G37" t="s">
         <v>249</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>326</v>
       </c>
     </row>
@@ -5964,7 +6589,7 @@
       <c r="G38" t="s">
         <v>296</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>423</v>
       </c>
     </row>
@@ -5972,7 +6597,7 @@
       <c r="G39" t="s">
         <v>255</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>511</v>
       </c>
     </row>
@@ -5980,7 +6605,7 @@
       <c r="G40" t="s">
         <v>69</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>380</v>
       </c>
     </row>
@@ -5988,7 +6613,7 @@
       <c r="G41" t="s">
         <v>201</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5996,7 +6621,7 @@
       <c r="G42" t="s">
         <v>541</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>112</v>
       </c>
     </row>
@@ -6004,7 +6629,7 @@
       <c r="G43" t="s">
         <v>277</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6012,7 +6637,7 @@
       <c r="G44" t="s">
         <v>288</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>114</v>
       </c>
     </row>
@@ -6020,7 +6645,7 @@
       <c r="G45" t="s">
         <v>289</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6028,7 +6653,7 @@
       <c r="G46" t="s">
         <v>331</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6036,7 +6661,7 @@
       <c r="G47" t="s">
         <v>330</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>424</v>
       </c>
     </row>
@@ -6044,7 +6669,7 @@
       <c r="G48" t="s">
         <v>200</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6052,7 +6677,7 @@
       <c r="G49" t="s">
         <v>308</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6060,7 +6685,7 @@
       <c r="G50" t="s">
         <v>327</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>537</v>
       </c>
     </row>
@@ -6068,7 +6693,7 @@
       <c r="G51" t="s">
         <v>355</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>117</v>
       </c>
     </row>
@@ -6076,7 +6701,7 @@
       <c r="G52" t="s">
         <v>290</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>118</v>
       </c>
     </row>
@@ -6084,7 +6709,7 @@
       <c r="G53" t="s">
         <v>343</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>119</v>
       </c>
     </row>
@@ -6092,7 +6717,7 @@
       <c r="G54" t="s">
         <v>319</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>479</v>
       </c>
     </row>
@@ -6100,7 +6725,7 @@
       <c r="G55" t="s">
         <v>256</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>449</v>
       </c>
     </row>
@@ -6108,7 +6733,7 @@
       <c r="G56" t="s">
         <v>280</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>120</v>
       </c>
     </row>
@@ -6116,7 +6741,7 @@
       <c r="G57" t="s">
         <v>281</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>334</v>
       </c>
     </row>
@@ -6124,7 +6749,7 @@
       <c r="G58" t="s">
         <v>542</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>450</v>
       </c>
     </row>
@@ -6132,7 +6757,7 @@
       <c r="G59" t="s">
         <v>282</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6140,7 +6765,7 @@
       <c r="G60" t="s">
         <v>291</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>122</v>
       </c>
     </row>
@@ -6148,7 +6773,7 @@
       <c r="G61" t="s">
         <v>300</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6156,7 +6781,7 @@
       <c r="G62" t="s">
         <v>325</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6164,7 +6789,7 @@
       <c r="G63" t="s">
         <v>297</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>125</v>
       </c>
     </row>
@@ -6172,7 +6797,7 @@
       <c r="G64" t="s">
         <v>298</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>126</v>
       </c>
     </row>
@@ -6180,7 +6805,7 @@
       <c r="G65" t="s">
         <v>356</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6188,7 +6813,7 @@
       <c r="G66" t="s">
         <v>357</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>425</v>
       </c>
     </row>
@@ -6196,7 +6821,7 @@
       <c r="G67" t="s">
         <v>333</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>458</v>
       </c>
     </row>
@@ -6204,7 +6829,7 @@
       <c r="G68" t="s">
         <v>301</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>203</v>
       </c>
     </row>
@@ -6212,7 +6837,7 @@
       <c r="G69" t="s">
         <v>257</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>376</v>
       </c>
     </row>
@@ -6220,7 +6845,7 @@
       <c r="G70" t="s">
         <v>509</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>426</v>
       </c>
     </row>
@@ -6228,7 +6853,7 @@
       <c r="G71" t="s">
         <v>302</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>128</v>
       </c>
     </row>
@@ -6236,7 +6861,7 @@
       <c r="G72" t="s">
         <v>395</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6244,7 +6869,7 @@
       <c r="G73" t="s">
         <v>292</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>130</v>
       </c>
     </row>
@@ -6252,7 +6877,7 @@
       <c r="G74" t="s">
         <v>396</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>131</v>
       </c>
     </row>
@@ -6260,7 +6885,7 @@
       <c r="G75" t="s">
         <v>250</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>186</v>
       </c>
     </row>
@@ -6268,7 +6893,7 @@
       <c r="G76" t="s">
         <v>494</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>187</v>
       </c>
     </row>
@@ -6276,7 +6901,7 @@
       <c r="G77" t="s">
         <v>332</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>438</v>
       </c>
     </row>
@@ -6284,7 +6909,7 @@
       <c r="G78" t="s">
         <v>268</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>451</v>
       </c>
     </row>
@@ -6292,7 +6917,7 @@
       <c r="G79" t="s">
         <v>274</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>132</v>
       </c>
     </row>
@@ -6300,7 +6925,7 @@
       <c r="G80" t="s">
         <v>279</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>133</v>
       </c>
     </row>
@@ -6308,7 +6933,7 @@
       <c r="G81" t="s">
         <v>414</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>134</v>
       </c>
     </row>
@@ -6316,7 +6941,7 @@
       <c r="G82" t="s">
         <v>320</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>480</v>
       </c>
     </row>
@@ -6324,7 +6949,7 @@
       <c r="G83" t="s">
         <v>258</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6332,7 +6957,7 @@
       <c r="G84" t="s">
         <v>269</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6340,7 +6965,7 @@
       <c r="G85" t="s">
         <v>275</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>188</v>
       </c>
     </row>
@@ -6348,7 +6973,7 @@
       <c r="G86" t="s">
         <v>264</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>481</v>
       </c>
     </row>
@@ -6356,7 +6981,7 @@
       <c r="G87" t="s">
         <v>512</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>189</v>
       </c>
     </row>
@@ -6364,7 +6989,7 @@
       <c r="G88" t="s">
         <v>259</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>439</v>
       </c>
     </row>
@@ -6372,7 +6997,7 @@
       <c r="G89" t="s">
         <v>276</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>190</v>
       </c>
     </row>
@@ -6380,7 +7005,7 @@
       <c r="G90" t="s">
         <v>260</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>191</v>
       </c>
     </row>
@@ -6388,7 +7013,7 @@
       <c r="G91" t="s">
         <v>261</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>204</v>
       </c>
     </row>
@@ -6396,7 +7021,7 @@
       <c r="G92" t="s">
         <v>293</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>137</v>
       </c>
     </row>
@@ -6404,7 +7029,7 @@
       <c r="G93" t="s">
         <v>299</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>192</v>
       </c>
     </row>
@@ -6412,7 +7037,7 @@
       <c r="G94" t="s">
         <v>283</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>427</v>
       </c>
     </row>
@@ -6420,7 +7045,7 @@
       <c r="G95" t="s">
         <v>328</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>428</v>
       </c>
     </row>
@@ -6428,7 +7053,7 @@
       <c r="G96" t="s">
         <v>265</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>193</v>
       </c>
     </row>
@@ -6436,167 +7061,167 @@
       <c r="G97" t="s">
         <v>266</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>159</v>
       </c>
     </row>

--- a/examples/failures/artifact/script/Macros.xlsx
+++ b/examples/failures/artifact/script/Macros.xlsx
@@ -19,7 +19,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -41,7 +41,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3339" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5003" uniqueCount="550">
   <si>
     <t>description</t>
   </si>
@@ -1694,6 +1694,24 @@
   </si>
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1701,7 +1719,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="88" x14ac:knownFonts="1">
+  <fonts count="136" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2260,8 +2278,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="138">
+  <fills count="219">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3039,8 +3360,467 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="162">
+  <borders count="258">
     <border>
       <left/>
       <right/>
@@ -4693,13 +5473,991 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="150">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4965,52 +6723,196 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="110" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="113" borderId="137" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="137" fillId="113" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="116" borderId="141" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="141" fillId="116" fontId="74" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="119" borderId="145" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="145" fillId="119" fontId="75" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="122" borderId="149" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="149" fillId="122" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="125" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="125" fontId="78" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="128" borderId="153" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="153" fillId="128" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="119" borderId="157" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="157" fillId="119" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="131" borderId="161" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="161" fillId="131" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="131" borderId="161" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="161" fillId="131" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="122" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="134" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="134" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="122" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="137" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="137" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="169" fillId="140" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="173" fillId="143" fontId="90" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="177" fillId="146" fontId="91" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="181" fillId="149" fontId="92" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="152" fontId="94" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="95" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="185" fillId="155" fontId="96" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="189" fillId="146" fontId="97" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="193" fillId="158" fontId="98" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="193" fillId="158" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="149" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="161" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="149" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="164" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="201" fillId="167" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="205" fillId="170" fontId="106" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="209" fillId="173" fontId="107" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="213" fillId="176" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="179" fontId="110" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="217" fillId="182" fontId="112" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="221" fillId="173" fontId="113" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="225" fillId="185" fontId="114" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="225" fillId="185" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="176" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="188" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="176" fontId="118" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="191" fontId="119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="194" borderId="233" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="197" borderId="237" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="200" borderId="241" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="203" borderId="245" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="206" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="209" borderId="249" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="200" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="212" borderId="257" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="212" borderId="257" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="203" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="215" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="203" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="218" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5308,7 +7210,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -5687,7 +7589,7 @@
         <v>418</v>
       </c>
       <c r="G5" t="s">
-        <v>324</v>
+        <v>547</v>
       </c>
       <c r="H5" t="s">
         <v>445</v>
@@ -5761,7 +7663,7 @@
         <v>466</v>
       </c>
       <c r="G6" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="H6" t="s">
         <v>433</v>
@@ -5823,7 +7725,7 @@
         <v>212</v>
       </c>
       <c r="G7" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="H7" t="s">
         <v>432</v>
@@ -5885,7 +7787,7 @@
         <v>306</v>
       </c>
       <c r="G8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H8" t="s">
         <v>316</v>
@@ -5941,7 +7843,7 @@
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>294</v>
+        <v>354</v>
       </c>
       <c r="H9" t="s">
         <v>317</v>
@@ -5985,7 +7887,7 @@
         <v>303</v>
       </c>
       <c r="G10" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
       <c r="H10" t="s">
         <v>437</v>
@@ -6026,7 +7928,7 @@
         <v>244</v>
       </c>
       <c r="G11" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="H11" t="s">
         <v>310</v>
@@ -6064,7 +7966,7 @@
         <v>307</v>
       </c>
       <c r="G12" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="H12" t="s">
         <v>311</v>
@@ -6102,7 +8004,7 @@
         <v>329</v>
       </c>
       <c r="G13" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="H13" t="s">
         <v>312</v>
@@ -6137,7 +8039,7 @@
         <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="H14" t="s">
         <v>313</v>
@@ -6172,7 +8074,7 @@
         <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K15" t="s">
         <v>471</v>
@@ -6204,7 +8106,7 @@
         <v>372</v>
       </c>
       <c r="G16" t="s">
-        <v>305</v>
+        <v>253</v>
       </c>
       <c r="K16" t="s">
         <v>72</v>
@@ -6236,7 +8138,7 @@
         <v>373</v>
       </c>
       <c r="G17" t="s">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="K17" t="s">
         <v>73</v>
@@ -6262,7 +8164,7 @@
         <v>400</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s">
         <v>448</v>
@@ -6285,7 +8187,7 @@
         <v>51</v>
       </c>
       <c r="G19" t="s">
-        <v>284</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s">
         <v>74</v>
@@ -6305,7 +8207,7 @@
         <v>52</v>
       </c>
       <c r="G20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K20" t="s">
         <v>75</v>
@@ -6325,7 +8227,7 @@
         <v>539</v>
       </c>
       <c r="G21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K21" t="s">
         <v>367</v>
@@ -6345,7 +8247,7 @@
         <v>53</v>
       </c>
       <c r="G22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K22" t="s">
         <v>455</v>
@@ -6365,7 +8267,7 @@
         <v>309</v>
       </c>
       <c r="G23" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="K23" t="s">
         <v>36</v>
@@ -6385,13 +8287,13 @@
         <v>54</v>
       </c>
       <c r="G24" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="K24" t="s">
         <v>379</v>
       </c>
       <c r="Y24" t="s">
-        <v>100</v>
+        <v>544</v>
       </c>
       <c r="AD24" t="s">
         <v>517</v>
@@ -6405,13 +8307,13 @@
         <v>434</v>
       </c>
       <c r="G25" t="s">
-        <v>67</v>
+        <v>267</v>
       </c>
       <c r="K25" t="s">
         <v>508</v>
       </c>
       <c r="Y25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AD25" t="s">
         <v>518</v>
@@ -6425,13 +8327,13 @@
         <v>213</v>
       </c>
       <c r="G26" t="s">
-        <v>270</v>
+        <v>67</v>
       </c>
       <c r="K26" t="s">
         <v>76</v>
       </c>
       <c r="Y26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD26" t="s">
         <v>224</v>
@@ -6445,13 +8347,13 @@
         <v>214</v>
       </c>
       <c r="G27" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="K27" t="s">
         <v>419</v>
       </c>
       <c r="Y27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AD27" t="s">
         <v>225</v>
@@ -6465,13 +8367,13 @@
         <v>453</v>
       </c>
       <c r="G28" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="K28" t="s">
         <v>37</v>
       </c>
       <c r="Y28" t="s">
-        <v>315</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29">
@@ -6482,13 +8384,13 @@
         <v>454</v>
       </c>
       <c r="G29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K29" t="s">
         <v>38</v>
       </c>
       <c r="Y29" t="s">
-        <v>104</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30">
@@ -6499,10 +8401,10 @@
         <v>401</v>
       </c>
       <c r="G30" t="s">
-        <v>205</v>
+        <v>272</v>
       </c>
       <c r="Y30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31">
@@ -6510,10 +8412,10 @@
         <v>55</v>
       </c>
       <c r="G31" t="s">
-        <v>263</v>
+        <v>205</v>
       </c>
       <c r="Y31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32">
@@ -6521,10 +8423,10 @@
         <v>56</v>
       </c>
       <c r="G32" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="Y32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
@@ -6532,10 +8434,10 @@
         <v>57</v>
       </c>
       <c r="G33" t="s">
-        <v>493</v>
+        <v>273</v>
       </c>
       <c r="Y33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34">
@@ -6543,10 +8445,10 @@
         <v>58</v>
       </c>
       <c r="G34" t="s">
-        <v>248</v>
+        <v>493</v>
       </c>
       <c r="Y34" t="s">
-        <v>109</v>
+        <v>545</v>
       </c>
     </row>
     <row r="35">
@@ -6554,10 +8456,10 @@
         <v>59</v>
       </c>
       <c r="G35" t="s">
-        <v>318</v>
+        <v>248</v>
       </c>
       <c r="Y35" t="s">
-        <v>199</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36">
@@ -6565,10 +8467,10 @@
         <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="Y36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37">
@@ -6576,10 +8478,10 @@
         <v>61</v>
       </c>
       <c r="G37" t="s">
-        <v>249</v>
+        <v>295</v>
       </c>
       <c r="Y37" t="s">
-        <v>326</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38">
@@ -6587,641 +8489,669 @@
         <v>62</v>
       </c>
       <c r="G38" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="Y38" t="s">
-        <v>423</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="Y39" t="s">
-        <v>511</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>69</v>
+        <v>255</v>
       </c>
       <c r="Y40" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>201</v>
+        <v>69</v>
       </c>
       <c r="Y41" t="s">
-        <v>111</v>
+        <v>511</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>541</v>
+        <v>201</v>
       </c>
       <c r="Y42" t="s">
-        <v>112</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>277</v>
+        <v>541</v>
       </c>
       <c r="Y43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="Y44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Y45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="Y46" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y47" t="s">
-        <v>424</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="Y48" t="s">
-        <v>202</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>308</v>
+        <v>200</v>
       </c>
       <c r="Y49" t="s">
-        <v>68</v>
+        <v>424</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="Y50" t="s">
-        <v>537</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="Y51" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>290</v>
+        <v>355</v>
       </c>
       <c r="Y52" t="s">
-        <v>118</v>
+        <v>537</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>343</v>
+        <v>290</v>
       </c>
       <c r="Y53" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="Y54" t="s">
-        <v>479</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>256</v>
+        <v>319</v>
       </c>
       <c r="Y55" t="s">
-        <v>449</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="Y56" t="s">
-        <v>120</v>
+        <v>479</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Y57" t="s">
-        <v>334</v>
+        <v>449</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>542</v>
+        <v>281</v>
       </c>
       <c r="Y58" t="s">
-        <v>450</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>282</v>
+        <v>542</v>
       </c>
       <c r="Y59" t="s">
-        <v>121</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="Y60" t="s">
-        <v>122</v>
+        <v>450</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="Y61" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="Y62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="Y63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Y64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>356</v>
+        <v>298</v>
       </c>
       <c r="Y65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Y66" t="s">
-        <v>425</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="Y67" t="s">
-        <v>458</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="Y68" t="s">
-        <v>203</v>
+        <v>425</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="Y69" t="s">
-        <v>376</v>
+        <v>458</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>509</v>
+        <v>257</v>
       </c>
       <c r="Y70" t="s">
-        <v>426</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>302</v>
+        <v>509</v>
       </c>
       <c r="Y71" t="s">
-        <v>128</v>
+        <v>376</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>395</v>
+        <v>302</v>
       </c>
       <c r="Y72" t="s">
-        <v>129</v>
+        <v>426</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>292</v>
+        <v>395</v>
       </c>
       <c r="Y73" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>396</v>
+        <v>292</v>
       </c>
       <c r="Y74" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>250</v>
+        <v>396</v>
       </c>
       <c r="Y75" t="s">
-        <v>186</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>494</v>
+        <v>250</v>
       </c>
       <c r="Y76" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>332</v>
+        <v>494</v>
       </c>
       <c r="Y77" t="s">
-        <v>438</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>268</v>
+        <v>332</v>
       </c>
       <c r="Y78" t="s">
-        <v>451</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Y79" t="s">
-        <v>132</v>
+        <v>438</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="Y80" t="s">
-        <v>133</v>
+        <v>451</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>414</v>
+        <v>279</v>
       </c>
       <c r="Y81" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>320</v>
+        <v>414</v>
       </c>
       <c r="Y82" t="s">
-        <v>480</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>258</v>
+        <v>320</v>
       </c>
       <c r="Y83" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="Y84" t="s">
-        <v>136</v>
+        <v>480</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="Y85" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="Y86" t="s">
-        <v>481</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>512</v>
+        <v>264</v>
       </c>
       <c r="Y87" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>259</v>
+        <v>512</v>
       </c>
       <c r="Y88" t="s">
-        <v>439</v>
+        <v>481</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="Y89" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="Y90" t="s">
-        <v>191</v>
+        <v>439</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Y91" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="Y92" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="Y93" t="s">
-        <v>192</v>
+        <v>548</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="Y94" t="s">
-        <v>427</v>
+        <v>549</v>
       </c>
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>328</v>
+        <v>283</v>
       </c>
       <c r="Y95" t="s">
-        <v>428</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>265</v>
+        <v>328</v>
       </c>
       <c r="Y96" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97">
       <c r="G97" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="G98" t="s">
         <v>266</v>
       </c>
-      <c r="Y97" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="98">
       <c r="Y98" t="s">
-        <v>195</v>
+        <v>427</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>196</v>
+        <v>428</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>482</v>
+        <v>195</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>506</v>
+        <v>196</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>138</v>
+        <v>211</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>507</v>
+        <v>197</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>370</v>
+        <v>482</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>139</v>
+        <v>506</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>141</v>
+        <v>507</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>142</v>
+        <v>370</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>429</v>
+        <v>148</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>155</v>
+        <v>429</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>156</v>
+        <v>546</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>159</v>
       </c>
     </row>

--- a/examples/failures/artifact/script/Macros.xlsx
+++ b/examples/failures/artifact/script/Macros.xlsx
@@ -15,39 +15,40 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="150000"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5003" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6123" uniqueCount="556">
   <si>
     <t>description</t>
   </si>
@@ -1712,6 +1713,24 @@
   </si>
   <si>
     <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1719,7 +1738,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="136" x14ac:knownFonts="1">
+  <fonts count="168" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2581,8 +2600,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="219">
+  <fills count="273">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3819,8 +4040,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="258">
+  <borders count="322">
     <border>
       <left/>
       <right/>
@@ -3842,6 +4369,658 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -6457,7 +7636,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="182">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6867,52 +8046,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="191" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="194" borderId="233" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="233" fillId="194" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="197" borderId="237" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="237" fillId="197" fontId="122" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="200" borderId="241" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="241" fillId="200" fontId="123" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="203" borderId="245" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="245" fillId="203" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="206" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="206" fontId="126" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="209" borderId="249" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="249" fillId="209" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="200" borderId="253" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="253" fillId="200" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="212" borderId="257" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="257" fillId="212" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="212" borderId="257" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="257" fillId="212" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="203" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="203" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="215" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="215" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="203" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="203" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="218" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="218" fontId="135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="265" fillId="221" fontId="136" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="269" fillId="224" fontId="138" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="273" fillId="227" fontId="139" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="277" fillId="230" fontId="140" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="141" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="233" fontId="142" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="143" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="281" fillId="236" fontId="144" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="285" fillId="227" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="289" fillId="239" fontId="146" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="289" fillId="239" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="230" fontId="148" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="242" fontId="149" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="230" fontId="150" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="245" fontId="151" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="248" borderId="297" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="251" borderId="301" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="254" borderId="305" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="257" borderId="309" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="260" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="263" borderId="313" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="254" borderId="317" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="266" borderId="321" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="266" borderId="321" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="257" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="269" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="257" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="272" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7210,7 +8485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -7233,81 +8508,84 @@
         <v>461</v>
       </c>
       <c r="E1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>335</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>321</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>491</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>243</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>185</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>43</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>227</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>44</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>381</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>397</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>398</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>344</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>382</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>47</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>399</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>215</v>
       </c>
     </row>
@@ -7325,81 +8603,84 @@
         <v>462</v>
       </c>
       <c r="E2" t="s">
+        <v>551</v>
+      </c>
+      <c r="F2" t="s">
         <v>49</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>63</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>65</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>435</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>70</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>446</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>303</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>371</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>420</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>495</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>472</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>402</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>415</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>241</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>206</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>383</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>404</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>405</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>368</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>392</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>87</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>160</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>165</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>172</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>417</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>483</v>
       </c>
     </row>
@@ -7416,76 +8697,76 @@
       <c r="D3" t="s">
         <v>492</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>443</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>352</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>79</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>40</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>467</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>337</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>329</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>322</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>77</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>496</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>473</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>416</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>228</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>207</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>384</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>406</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>369</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>393</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>88</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>161</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>166</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>351</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>173</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>216</v>
       </c>
     </row>
@@ -7499,82 +8780,82 @@
       <c r="D4" t="s">
         <v>463</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>374</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>436</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>468</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>338</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>226</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>323</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>18</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>497</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>474</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>19</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>229</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>208</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>385</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>407</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>345</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>394</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>341</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>162</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>167</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>173</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>409</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>550</v>
       </c>
       <c r="B5" t="s">
         <v>362</v>
@@ -7582,73 +8863,73 @@
       <c r="D5" t="s">
         <v>464</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>444</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>418</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>547</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>445</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>510</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>339</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>447</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>78</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>498</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>22</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>230</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>209</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>386</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>408</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>346</v>
       </c>
-      <c r="Y5" t="s">
-        <v>342</v>
-      </c>
       <c r="Z5" t="s">
+        <v>554</v>
+      </c>
+      <c r="AA5" t="s">
         <v>163</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>168</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>174</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>410</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>363</v>
@@ -7656,1502 +8937,1510 @@
       <c r="D6" t="s">
         <v>465</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>466</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>324</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>433</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>336</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>63</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>21</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>499</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>23</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>231</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>378</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>387</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>348</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>89</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>430</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>169</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>175</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>411</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
         <v>364</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>212</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>375</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>432</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>519</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>12</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>303</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>500</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>25</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>232</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>403</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>388</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>347</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>90</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>431</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>170</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>176</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>412</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>365</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>306</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>353</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>316</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>469</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>26</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>501</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>82</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>233</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>389</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>349</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>91</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>164</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>171</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>177</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>413</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>366</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>24</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>354</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>317</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>71</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>27</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>502</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>83</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>234</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>390</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>350</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>198</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>178</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>335</v>
-      </c>
-      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
         <v>303</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>294</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>437</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>30</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>28</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>503</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>422</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>235</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>391</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>245</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>179</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>244</v>
-      </c>
-      <c r="G11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F11" t="s">
+        <v>553</v>
+      </c>
+      <c r="H11" t="s">
         <v>340</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>310</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>470</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>456</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>504</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>84</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>236</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>246</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>247</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>321</v>
-      </c>
-      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
         <v>307</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>262</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>311</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>377</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>536</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>505</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>33</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>237</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>92</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>180</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
+        <v>321</v>
+      </c>
+      <c r="F13" t="s">
         <v>329</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>251</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>312</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>13</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>421</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>85</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>242</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>314</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>181</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>491</v>
-      </c>
-      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
         <v>29</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>304</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>313</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>34</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>457</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>86</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>238</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>93</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>182</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>243</v>
-      </c>
-      <c r="E15" t="s">
+        <v>491</v>
+      </c>
+      <c r="F15" t="s">
         <v>50</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>252</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>471</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>31</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>475</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>239</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>94</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>183</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>185</v>
-      </c>
-      <c r="E16" t="s">
+        <v>243</v>
+      </c>
+      <c r="F16" t="s">
         <v>372</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>253</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>72</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>543</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>476</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>240</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>66</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>184</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" t="s">
         <v>373</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>305</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>73</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>32</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>477</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>452</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>227</v>
-      </c>
-      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
         <v>400</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>80</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>448</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>35</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>95</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" t="s">
+        <v>227</v>
+      </c>
+      <c r="F19" t="s">
         <v>51</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>81</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>74</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>96</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>381</v>
-      </c>
-      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
         <v>52</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>284</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>75</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>97</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>397</v>
-      </c>
-      <c r="E21" t="s">
+        <v>381</v>
+      </c>
+      <c r="F21" t="s">
         <v>539</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>285</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>367</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>98</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>398</v>
-      </c>
-      <c r="E22" t="s">
+        <v>397</v>
+      </c>
+      <c r="F22" t="s">
         <v>53</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>286</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>455</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>478</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>344</v>
-      </c>
-      <c r="E23" t="s">
+        <v>398</v>
+      </c>
+      <c r="F23" t="s">
         <v>309</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>287</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>36</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>99</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>382</v>
-      </c>
-      <c r="E24" t="s">
+        <v>344</v>
+      </c>
+      <c r="F24" t="s">
         <v>54</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>278</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>379</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>544</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" t="s">
+        <v>382</v>
+      </c>
+      <c r="F25" t="s">
         <v>434</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>267</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>508</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>100</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" t="s">
         <v>213</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>67</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>76</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>101</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" t="s">
         <v>214</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>270</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>419</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>102</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" t="s">
         <v>453</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>254</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>37</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>399</v>
-      </c>
-      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" t="s">
         <v>454</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>271</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>38</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>399</v>
+      </c>
+      <c r="F30" t="s">
+        <v>401</v>
+      </c>
+      <c r="H30" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>215</v>
       </c>
-      <c r="E30" t="s">
-        <v>401</v>
-      </c>
-      <c r="G30" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>55</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>205</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>56</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>263</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>57</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>273</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>58</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>493</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>59</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>248</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>60</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>318</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>61</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>295</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>62</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>249</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="39">
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>296</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>255</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>69</v>
       </c>
-      <c r="Y41" t="s">
-        <v>511</v>
+      <c r="Z41" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>201</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>541</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>277</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>288</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>289</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>331</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>330</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>200</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>308</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>327</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>355</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>290</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>343</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>319</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>256</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>280</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>281</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>542</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>282</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>291</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>300</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>325</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>297</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>298</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>356</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>357</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>333</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>301</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>257</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>509</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>302</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>395</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>292</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>396</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>250</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>494</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>332</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>268</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>274</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>279</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>414</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>320</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>258</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>269</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>275</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>264</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>512</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>259</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>276</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>260</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>261</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>293</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>299</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>283</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>328</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>265</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>266</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>159</v>
       </c>
     </row>

--- a/examples/failures/artifact/script/Macros.xlsx
+++ b/examples/failures/artifact/script/Macros.xlsx
@@ -15,7 +15,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -23,7 +23,7 @@
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
     <definedName name="external">'#system'!$J$2:$J$5</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6123" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7246" uniqueCount="561">
   <si>
     <t>description</t>
   </si>
@@ -1731,6 +1731,21 @@
   </si>
   <si>
     <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>clearVariables(variables)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
   </si>
 </sst>
 </file>
@@ -1738,7 +1753,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="168" x14ac:knownFonts="1">
+  <fonts count="200" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2802,8 +2817,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="273">
+  <fills count="327">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4346,8 +4563,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="322">
+  <borders count="386">
     <border>
       <left/>
       <right/>
@@ -4369,6 +4892,658 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -7636,7 +8811,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="214">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8142,52 +9317,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="245" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="248" borderId="297" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="297" fillId="248" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="251" borderId="301" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="301" fillId="251" fontId="154" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="254" borderId="305" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="305" fillId="254" fontId="155" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="257" borderId="309" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="309" fillId="257" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="157" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="260" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="260" fontId="158" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="263" borderId="313" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="313" fillId="263" fontId="160" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="254" borderId="317" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="317" fillId="254" fontId="161" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="266" borderId="321" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="321" fillId="266" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="266" borderId="321" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="321" fillId="266" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="257" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="257" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="269" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="269" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="257" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="257" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="272" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="272" fontId="167" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="329" fillId="275" fontId="168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="169" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="333" fillId="278" fontId="170" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="337" fillId="281" fontId="171" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="341" fillId="284" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="173" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="287" fontId="174" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="345" fillId="290" fontId="176" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="349" fillId="281" fontId="177" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="353" fillId="293" fontId="178" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="353" fillId="293" fontId="179" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="284" fontId="180" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="296" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="284" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="299" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="302" borderId="361" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="305" borderId="365" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="308" borderId="369" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="311" borderId="373" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="314" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="317" borderId="377" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="308" borderId="381" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="320" borderId="385" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="320" borderId="385" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="311" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="323" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="311" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="326" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8799,7 +10070,7 @@
         <v>338</v>
       </c>
       <c r="L4" t="s">
-        <v>226</v>
+        <v>559</v>
       </c>
       <c r="M4" t="s">
         <v>323</v>
@@ -8835,7 +10106,7 @@
         <v>394</v>
       </c>
       <c r="Z4" t="s">
-        <v>341</v>
+        <v>560</v>
       </c>
       <c r="AA4" t="s">
         <v>162</v>
@@ -8882,7 +10153,7 @@
         <v>339</v>
       </c>
       <c r="L5" t="s">
-        <v>447</v>
+        <v>226</v>
       </c>
       <c r="N5" t="s">
         <v>78</v>
@@ -8953,7 +10224,7 @@
         <v>336</v>
       </c>
       <c r="L6" t="s">
-        <v>63</v>
+        <v>447</v>
       </c>
       <c r="N6" t="s">
         <v>21</v>
@@ -9015,7 +10286,7 @@
         <v>519</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="N7" t="s">
         <v>303</v>
@@ -9074,7 +10345,7 @@
         <v>316</v>
       </c>
       <c r="L8" t="s">
-        <v>469</v>
+        <v>12</v>
       </c>
       <c r="N8" t="s">
         <v>26</v>
@@ -9130,7 +10401,7 @@
         <v>317</v>
       </c>
       <c r="L9" t="s">
-        <v>71</v>
+        <v>469</v>
       </c>
       <c r="N9" t="s">
         <v>27</v>
@@ -9174,7 +10445,7 @@
         <v>437</v>
       </c>
       <c r="L10" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="N10" t="s">
         <v>28</v>
@@ -9215,7 +10486,7 @@
         <v>310</v>
       </c>
       <c r="L11" t="s">
-        <v>470</v>
+        <v>30</v>
       </c>
       <c r="N11" t="s">
         <v>456</v>
@@ -9253,7 +10524,7 @@
         <v>311</v>
       </c>
       <c r="L12" t="s">
-        <v>377</v>
+        <v>470</v>
       </c>
       <c r="N12" t="s">
         <v>536</v>
@@ -9291,7 +10562,7 @@
         <v>312</v>
       </c>
       <c r="L13" t="s">
-        <v>13</v>
+        <v>377</v>
       </c>
       <c r="N13" t="s">
         <v>421</v>
@@ -9326,7 +10597,7 @@
         <v>313</v>
       </c>
       <c r="L14" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="N14" t="s">
         <v>457</v>
@@ -9358,7 +10629,7 @@
         <v>252</v>
       </c>
       <c r="L15" t="s">
-        <v>471</v>
+        <v>34</v>
       </c>
       <c r="N15" t="s">
         <v>31</v>
@@ -9390,7 +10661,7 @@
         <v>253</v>
       </c>
       <c r="L16" t="s">
-        <v>72</v>
+        <v>471</v>
       </c>
       <c r="N16" t="s">
         <v>543</v>
@@ -9422,7 +10693,7 @@
         <v>305</v>
       </c>
       <c r="L17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N17" t="s">
         <v>32</v>
@@ -9448,7 +10719,7 @@
         <v>80</v>
       </c>
       <c r="L18" t="s">
-        <v>448</v>
+        <v>73</v>
       </c>
       <c r="N18" t="s">
         <v>35</v>
@@ -9465,13 +10736,13 @@
         <v>227</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>558</v>
       </c>
       <c r="H19" t="s">
         <v>81</v>
       </c>
       <c r="L19" t="s">
-        <v>74</v>
+        <v>448</v>
       </c>
       <c r="Z19" t="s">
         <v>96</v>
@@ -9485,13 +10756,13 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s">
         <v>284</v>
       </c>
       <c r="L20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z20" t="s">
         <v>97</v>
@@ -9505,13 +10776,13 @@
         <v>381</v>
       </c>
       <c r="F21" t="s">
-        <v>539</v>
+        <v>52</v>
       </c>
       <c r="H21" t="s">
         <v>285</v>
       </c>
       <c r="L21" t="s">
-        <v>367</v>
+        <v>75</v>
       </c>
       <c r="Z21" t="s">
         <v>98</v>
@@ -9525,13 +10796,13 @@
         <v>397</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>539</v>
       </c>
       <c r="H22" t="s">
         <v>286</v>
       </c>
       <c r="L22" t="s">
-        <v>455</v>
+        <v>557</v>
       </c>
       <c r="Z22" t="s">
         <v>478</v>
@@ -9545,13 +10816,13 @@
         <v>398</v>
       </c>
       <c r="F23" t="s">
-        <v>309</v>
+        <v>53</v>
       </c>
       <c r="H23" t="s">
         <v>287</v>
       </c>
       <c r="L23" t="s">
-        <v>36</v>
+        <v>455</v>
       </c>
       <c r="Z23" t="s">
         <v>99</v>
@@ -9565,13 +10836,13 @@
         <v>344</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>309</v>
       </c>
       <c r="H24" t="s">
         <v>278</v>
       </c>
       <c r="L24" t="s">
-        <v>379</v>
+        <v>36</v>
       </c>
       <c r="Z24" t="s">
         <v>544</v>
@@ -9585,13 +10856,13 @@
         <v>382</v>
       </c>
       <c r="F25" t="s">
-        <v>434</v>
+        <v>54</v>
       </c>
       <c r="H25" t="s">
         <v>267</v>
       </c>
       <c r="L25" t="s">
-        <v>508</v>
+        <v>379</v>
       </c>
       <c r="Z25" t="s">
         <v>100</v>
@@ -9605,13 +10876,13 @@
         <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>213</v>
+        <v>434</v>
       </c>
       <c r="H26" t="s">
         <v>67</v>
       </c>
       <c r="L26" t="s">
-        <v>76</v>
+        <v>508</v>
       </c>
       <c r="Z26" t="s">
         <v>101</v>
@@ -9625,13 +10896,13 @@
         <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H27" t="s">
         <v>270</v>
       </c>
       <c r="L27" t="s">
-        <v>419</v>
+        <v>76</v>
       </c>
       <c r="Z27" t="s">
         <v>102</v>
@@ -9645,13 +10916,13 @@
         <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>453</v>
+        <v>214</v>
       </c>
       <c r="H28" t="s">
         <v>254</v>
       </c>
       <c r="L28" t="s">
-        <v>37</v>
+        <v>419</v>
       </c>
       <c r="Z28" t="s">
         <v>103</v>
@@ -9662,13 +10933,13 @@
         <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H29" t="s">
         <v>271</v>
       </c>
       <c r="L29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z29" t="s">
         <v>315</v>
@@ -9679,10 +10950,13 @@
         <v>399</v>
       </c>
       <c r="F30" t="s">
-        <v>401</v>
+        <v>454</v>
       </c>
       <c r="H30" t="s">
         <v>272</v>
+      </c>
+      <c r="L30" t="s">
+        <v>38</v>
       </c>
       <c r="Z30" t="s">
         <v>104</v>
@@ -9693,7 +10967,7 @@
         <v>215</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>401</v>
       </c>
       <c r="H31" t="s">
         <v>205</v>
@@ -9704,7 +10978,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H32" t="s">
         <v>263</v>
@@ -9715,7 +10989,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H33" t="s">
         <v>273</v>
@@ -9726,7 +11000,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H34" t="s">
         <v>493</v>
@@ -9737,7 +11011,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H35" t="s">
         <v>248</v>
@@ -9748,7 +11022,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H36" t="s">
         <v>318</v>
@@ -9759,7 +11033,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H37" t="s">
         <v>295</v>
@@ -9770,7 +11044,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H38" t="s">
         <v>249</v>
@@ -9780,6 +11054,9 @@
       </c>
     </row>
     <row r="39">
+      <c r="F39" t="s">
+        <v>62</v>
+      </c>
       <c r="H39" t="s">
         <v>296</v>
       </c>

--- a/examples/failures/artifact/script/Macros.xlsx
+++ b/examples/failures/artifact/script/Macros.xlsx
@@ -15,13 +15,13 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -41,7 +41,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7246" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7810" uniqueCount="564">
   <si>
     <t>description</t>
   </si>
@@ -1746,6 +1746,15 @@
   </si>
   <si>
     <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1753,7 +1762,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="200" x14ac:knownFonts="1">
+  <fonts count="216" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3019,8 +3028,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="327">
+  <fills count="354">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4869,8 +4979,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="386">
+  <borders count="418">
     <border>
       <left/>
       <right/>
@@ -4892,6 +5155,332 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -8811,7 +9400,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="230">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9413,52 +10002,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="299" fontId="183" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="302" borderId="361" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="361" fillId="302" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="305" borderId="365" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="365" fillId="305" fontId="186" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="308" borderId="369" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="369" fillId="308" fontId="187" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="311" borderId="373" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="373" fillId="311" fontId="188" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="189" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="190" fillId="314" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="314" fontId="190" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="317" borderId="377" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="377" fillId="317" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="308" borderId="381" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="381" fillId="308" fontId="193" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="320" borderId="385" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="385" fillId="320" fontId="194" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="320" borderId="385" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="385" fillId="320" fontId="195" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="311" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="311" fontId="196" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="323" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="323" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="311" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="311" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="326" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="326" fontId="199" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="329" borderId="393" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="332" borderId="397" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="335" borderId="401" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="338" borderId="405" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="341" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="344" borderId="409" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="335" borderId="413" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="347" borderId="417" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="347" borderId="417" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="338" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="350" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="338" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="353" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9756,7 +10393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125"/>
   </sheetViews>
@@ -10220,6 +10857,9 @@
       <c r="I6" t="s">
         <v>433</v>
       </c>
+      <c r="J6" t="s">
+        <v>561</v>
+      </c>
       <c r="K6" t="s">
         <v>336</v>
       </c>
@@ -10736,7 +11376,7 @@
         <v>227</v>
       </c>
       <c r="F19" t="s">
-        <v>558</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s">
         <v>81</v>
@@ -10756,7 +11396,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H20" t="s">
         <v>284</v>
@@ -10776,7 +11416,7 @@
         <v>381</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>539</v>
       </c>
       <c r="H21" t="s">
         <v>285</v>
@@ -10796,7 +11436,7 @@
         <v>397</v>
       </c>
       <c r="F22" t="s">
-        <v>539</v>
+        <v>53</v>
       </c>
       <c r="H22" t="s">
         <v>286</v>
@@ -10816,7 +11456,7 @@
         <v>398</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>309</v>
       </c>
       <c r="H23" t="s">
         <v>287</v>
@@ -10836,7 +11476,7 @@
         <v>344</v>
       </c>
       <c r="F24" t="s">
-        <v>309</v>
+        <v>54</v>
       </c>
       <c r="H24" t="s">
         <v>278</v>
@@ -10856,7 +11496,7 @@
         <v>382</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>434</v>
       </c>
       <c r="H25" t="s">
         <v>267</v>
@@ -10876,7 +11516,7 @@
         <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>434</v>
+        <v>213</v>
       </c>
       <c r="H26" t="s">
         <v>67</v>
@@ -10896,7 +11536,7 @@
         <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H27" t="s">
         <v>270</v>
@@ -10916,7 +11556,7 @@
         <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>214</v>
+        <v>453</v>
       </c>
       <c r="H28" t="s">
         <v>254</v>
@@ -10933,7 +11573,7 @@
         <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H29" t="s">
         <v>271</v>
@@ -10950,7 +11590,7 @@
         <v>399</v>
       </c>
       <c r="F30" t="s">
-        <v>454</v>
+        <v>401</v>
       </c>
       <c r="H30" t="s">
         <v>272</v>
@@ -10967,7 +11607,7 @@
         <v>215</v>
       </c>
       <c r="F31" t="s">
-        <v>401</v>
+        <v>55</v>
       </c>
       <c r="H31" t="s">
         <v>205</v>
@@ -10978,7 +11618,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H32" t="s">
         <v>263</v>
@@ -10989,7 +11629,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H33" t="s">
         <v>273</v>
@@ -11000,7 +11640,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H34" t="s">
         <v>493</v>
@@ -11011,7 +11651,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H35" t="s">
         <v>248</v>
@@ -11022,7 +11662,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H36" t="s">
         <v>318</v>
@@ -11033,7 +11673,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H37" t="s">
         <v>295</v>
@@ -11044,7 +11684,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H38" t="s">
         <v>249</v>
@@ -11054,9 +11694,6 @@
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="s">
-        <v>62</v>
-      </c>
       <c r="H39" t="s">
         <v>296</v>
       </c>
@@ -11538,186 +12175,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>428</v>
+        <v>562</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>193</v>
+        <v>563</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>194</v>
+        <v>428</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>482</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>552</v>
+        <v>197</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>138</v>
+        <v>552</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>370</v>
+        <v>138</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>139</v>
+        <v>507</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>140</v>
+        <v>370</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>429</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>546</v>
+        <v>429</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>154</v>
+        <v>546</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>159</v>
       </c>
     </row>

--- a/examples/failures/artifact/script/Macros.xlsx
+++ b/examples/failures/artifact/script/Macros.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7810" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8374" uniqueCount="564">
   <si>
     <t>description</t>
   </si>
@@ -1762,7 +1762,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="216" x14ac:knownFonts="1">
+  <fonts count="232" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3129,8 +3129,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="354">
+  <fills count="381">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5132,8 +5233,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="418">
+  <borders count="450">
     <border>
       <left/>
       <right/>
@@ -5155,6 +5409,332 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -9400,7 +9980,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="246">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10050,52 +10630,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="326" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="329" borderId="393" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="393" fillId="329" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="332" borderId="397" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="397" fillId="332" fontId="202" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="335" borderId="401" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="401" fillId="335" fontId="203" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="338" borderId="405" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="405" fillId="338" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="341" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="341" fontId="206" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="344" borderId="409" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="409" fillId="344" fontId="208" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="335" borderId="413" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="413" fillId="335" fontId="209" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="347" borderId="417" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="417" fillId="347" fontId="210" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="347" borderId="417" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="417" fillId="347" fontId="211" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="338" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="338" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="350" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="350" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="338" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="338" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="353" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="353" fontId="215" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="356" borderId="425" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="359" borderId="429" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="362" borderId="433" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="365" borderId="437" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="368" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="371" borderId="441" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="362" borderId="445" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="374" borderId="449" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="374" borderId="449" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="365" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="377" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="365" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="380" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/examples/failures/artifact/script/Macros.xlsx
+++ b/examples/failures/artifact/script/Macros.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8374" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8938" uniqueCount="564">
   <si>
     <t>description</t>
   </si>
@@ -1762,7 +1762,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="232" x14ac:knownFonts="1">
+  <fonts count="248" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3230,8 +3230,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="381">
+  <fills count="408">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5386,8 +5487,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="450">
+  <borders count="482">
     <border>
       <left/>
       <right/>
@@ -5409,6 +5663,332 @@
         <color theme="2" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -9980,7 +10560,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="262">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10678,52 +11258,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="353" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="356" borderId="425" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="425" fillId="356" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="359" borderId="429" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="429" fillId="359" fontId="218" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="362" borderId="433" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="433" fillId="362" fontId="219" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="365" borderId="437" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="437" fillId="365" fontId="220" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="221" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="368" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="368" fontId="222" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="223" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="371" borderId="441" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="441" fillId="371" fontId="224" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="362" borderId="445" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="445" fillId="362" fontId="225" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="374" borderId="449" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="449" fillId="374" fontId="226" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="374" borderId="449" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="449" fillId="374" fontId="227" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="365" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="365" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="377" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="377" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="365" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="365" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="380" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="380" fontId="231" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="383" borderId="457" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="386" borderId="461" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="389" borderId="465" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="392" borderId="469" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="395" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="398" borderId="473" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="389" borderId="477" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="401" borderId="481" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="401" borderId="481" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="392" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="404" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="392" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="407" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
